--- a/Kari_breakpoints/01_df_breakpoints.xlsx
+++ b/Kari_breakpoints/01_df_breakpoints.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J342"/>
+  <dimension ref="A1:Q342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,6 +408,41 @@
           <t>Brk2_SE</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slope1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Slope1_SE</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Slope2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Slope2_SE</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Slope3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Slope3_SE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Slope_p</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -438,6 +473,15 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>-0.001177405192184178</v>
+      </c>
+      <c r="L2">
+        <v>0.0005694959001726649</v>
+      </c>
+      <c r="Q2">
+        <v>0.05065367521201897</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -474,6 +518,21 @@
       <c r="H3">
         <v>2.982407925230179</v>
       </c>
+      <c r="K3">
+        <v>-0.00036833</v>
+      </c>
+      <c r="L3">
+        <v>0.0006839800000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.0015212</v>
+      </c>
+      <c r="N3">
+        <v>0.00041715</v>
+      </c>
+      <c r="Q3">
+        <v>0.5964777345753622</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -504,6 +563,15 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>1.351485244004097e-005</v>
+      </c>
+      <c r="L4">
+        <v>0.0001462124853632938</v>
+      </c>
+      <c r="Q4">
+        <v>0.9272301836958717</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -534,6 +602,15 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>0.0002640560747663539</v>
+      </c>
+      <c r="L5">
+        <v>6.285527303084662e-005</v>
+      </c>
+      <c r="Q5">
+        <v>0.000677053651330444</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -570,6 +647,21 @@
       <c r="H6">
         <v>2.205160724971482</v>
       </c>
+      <c r="K6">
+        <v>-9.692900000000001e-005</v>
+      </c>
+      <c r="L6">
+        <v>0.00013406</v>
+      </c>
+      <c r="M6">
+        <v>0.00071346</v>
+      </c>
+      <c r="N6">
+        <v>0.00029036</v>
+      </c>
+      <c r="Q6">
+        <v>0.4815849042970982</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -606,6 +698,21 @@
       <c r="H7">
         <v>0.8710095776993965</v>
       </c>
+      <c r="K7">
+        <v>0.00023297</v>
+      </c>
+      <c r="L7">
+        <v>6.4611e-005</v>
+      </c>
+      <c r="M7">
+        <v>0.0022055</v>
+      </c>
+      <c r="N7">
+        <v>0.0007512</v>
+      </c>
+      <c r="Q7">
+        <v>0.003196711475381123</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -636,6 +743,15 @@
       <c r="F8">
         <v>0</v>
       </c>
+      <c r="K8">
+        <v>0.003374180685358245</v>
+      </c>
+      <c r="L8">
+        <v>0.001383694565029892</v>
+      </c>
+      <c r="Q8">
+        <v>0.02678011991042979</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -666,6 +782,15 @@
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>8.353582554517005e-006</v>
+      </c>
+      <c r="L9">
+        <v>1.508537709645299e-005</v>
+      </c>
+      <c r="Q9">
+        <v>0.587403515783005</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -702,6 +827,21 @@
       <c r="H10">
         <v>3.171387785514824</v>
       </c>
+      <c r="K10">
+        <v>0.00013684</v>
+      </c>
+      <c r="L10">
+        <v>2.7261e-005</v>
+      </c>
+      <c r="M10">
+        <v>-0.000332</v>
+      </c>
+      <c r="N10">
+        <v>0.00053491</v>
+      </c>
+      <c r="Q10">
+        <v>6.574053940926947e-005</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -732,6 +872,15 @@
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>-0.0001376760124610592</v>
+      </c>
+      <c r="L11">
+        <v>5.754602875512744e-005</v>
+      </c>
+      <c r="Q11">
+        <v>0.02935689689508697</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -762,6 +911,15 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>2.379750778816211e-005</v>
+      </c>
+      <c r="L12">
+        <v>6.074447406057008e-005</v>
+      </c>
+      <c r="Q12">
+        <v>0.7004010950077421</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -792,6 +950,15 @@
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="K13">
+        <v>-2.552959501557624e-005</v>
+      </c>
+      <c r="L13">
+        <v>1.731409498904265e-005</v>
+      </c>
+      <c r="Q13">
+        <v>0.1597518646266443</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -822,6 +989,15 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="K14">
+        <v>2.098286604361305e-005</v>
+      </c>
+      <c r="L14">
+        <v>5.287906293473753e-005</v>
+      </c>
+      <c r="Q14">
+        <v>0.69675124528393</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -852,6 +1028,15 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="K15">
+        <v>0.0005420669781931437</v>
+      </c>
+      <c r="L15">
+        <v>0.0002043101535569891</v>
+      </c>
+      <c r="Q15">
+        <v>0.01735702641671268</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -882,6 +1067,15 @@
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="K16">
+        <v>-8.471183800623062e-005</v>
+      </c>
+      <c r="L16">
+        <v>3.820386318922346e-005</v>
+      </c>
+      <c r="Q16">
+        <v>0.04142597674693747</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -912,6 +1106,15 @@
       <c r="F17">
         <v>0</v>
       </c>
+      <c r="K17">
+        <v>-8.842834890965728e-005</v>
+      </c>
+      <c r="L17">
+        <v>3.299179261938067e-005</v>
+      </c>
+      <c r="Q17">
+        <v>0.01642041367077665</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -948,6 +1151,21 @@
       <c r="H18">
         <v>2.24439163310758</v>
       </c>
+      <c r="K18">
+        <v>-0.00058417</v>
+      </c>
+      <c r="L18">
+        <v>0.0005980300000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.0015727</v>
+      </c>
+      <c r="N18">
+        <v>0.00053296</v>
+      </c>
+      <c r="Q18">
+        <v>0.3452367776955485</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -984,6 +1202,21 @@
       <c r="H19">
         <v>1.657348339466395</v>
       </c>
+      <c r="K19">
+        <v>0.00032918</v>
+      </c>
+      <c r="L19">
+        <v>0.00015342</v>
+      </c>
+      <c r="M19">
+        <v>-0.00224</v>
+      </c>
+      <c r="N19">
+        <v>0.0017838</v>
+      </c>
+      <c r="Q19">
+        <v>0.05136691968540658</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1014,6 +1247,15 @@
       <c r="F20">
         <v>0</v>
       </c>
+      <c r="K20">
+        <v>-0.0002875898774123096</v>
+      </c>
+      <c r="L20">
+        <v>0.0001411987202798637</v>
+      </c>
+      <c r="Q20">
+        <v>0.06104309599173367</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1044,6 +1286,15 @@
       <c r="F21">
         <v>0</v>
       </c>
+      <c r="K21">
+        <v>-0.0002007514261439515</v>
+      </c>
+      <c r="L21">
+        <v>9.540648185231083e-005</v>
+      </c>
+      <c r="Q21">
+        <v>0.0539155062151707</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1074,6 +1325,15 @@
       <c r="F22">
         <v>0</v>
       </c>
+      <c r="K22">
+        <v>-0.01318985531796803</v>
+      </c>
+      <c r="L22">
+        <v>0.002219583918551104</v>
+      </c>
+      <c r="Q22">
+        <v>6.791834701452234e-005</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1104,6 +1364,15 @@
       <c r="F23">
         <v>0</v>
       </c>
+      <c r="K23">
+        <v>-0.001257443696986929</v>
+      </c>
+      <c r="L23">
+        <v>0.001807174233138232</v>
+      </c>
+      <c r="Q23">
+        <v>0.5023998765165828</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1134,6 +1403,15 @@
       <c r="F24">
         <v>0</v>
       </c>
+      <c r="K24">
+        <v>-0.006167697147481205</v>
+      </c>
+      <c r="L24">
+        <v>0.001301642294229794</v>
+      </c>
+      <c r="Q24">
+        <v>8.935185291041439e-005</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1176,6 +1454,27 @@
       <c r="J25">
         <v>1.402207645066845</v>
       </c>
+      <c r="K25">
+        <v>0.022683</v>
+      </c>
+      <c r="L25">
+        <v>0.010492</v>
+      </c>
+      <c r="M25">
+        <v>-0.015379</v>
+      </c>
+      <c r="N25">
+        <v>0.0027198</v>
+      </c>
+      <c r="O25">
+        <v>0.014772</v>
+      </c>
+      <c r="P25">
+        <v>0.012764</v>
+      </c>
+      <c r="Q25">
+        <v>0.04612291397101168</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1206,6 +1505,15 @@
       <c r="F26">
         <v>0</v>
       </c>
+      <c r="K26">
+        <v>0.0007623950338600579</v>
+      </c>
+      <c r="L26">
+        <v>0.001355553014381679</v>
+      </c>
+      <c r="Q26">
+        <v>0.5833961638511369</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1236,6 +1544,15 @@
       <c r="F27">
         <v>0</v>
       </c>
+      <c r="K27">
+        <v>-0.00139475841446453</v>
+      </c>
+      <c r="L27">
+        <v>0.0005964961722250582</v>
+      </c>
+      <c r="Q27">
+        <v>0.03929322993715405</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1266,6 +1583,15 @@
       <c r="F28">
         <v>0</v>
       </c>
+      <c r="K28">
+        <v>-0.0005141083557292815</v>
+      </c>
+      <c r="L28">
+        <v>0.0009237712325543144</v>
+      </c>
+      <c r="Q28">
+        <v>0.5889898550018886</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1296,6 +1622,15 @@
       <c r="F29">
         <v>0</v>
       </c>
+      <c r="K29">
+        <v>-0.0004127853174052191</v>
+      </c>
+      <c r="L29">
+        <v>9.593904171768254e-005</v>
+      </c>
+      <c r="Q29">
+        <v>0.0002881277255123165</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1332,6 +1667,21 @@
       <c r="H30">
         <v>0.4492573191933028</v>
       </c>
+      <c r="K30">
+        <v>-0.04256</v>
+      </c>
+      <c r="L30">
+        <v>0.0048714</v>
+      </c>
+      <c r="M30">
+        <v>-0.0022103</v>
+      </c>
+      <c r="N30">
+        <v>0.0008917</v>
+      </c>
+      <c r="Q30">
+        <v>2.912281561307927e-008</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1362,6 +1712,15 @@
       <c r="F31">
         <v>0</v>
       </c>
+      <c r="K31">
+        <v>-0.0002633336743044189</v>
+      </c>
+      <c r="L31">
+        <v>0.0002033624494145079</v>
+      </c>
+      <c r="Q31">
+        <v>0.2108704860134734</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1392,6 +1751,15 @@
       <c r="F32">
         <v>0</v>
       </c>
+      <c r="K32">
+        <v>1.100065466447966e-005</v>
+      </c>
+      <c r="L32">
+        <v>0.0002636961991998685</v>
+      </c>
+      <c r="Q32">
+        <v>0.9671594537338015</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1422,6 +1790,15 @@
       <c r="F33">
         <v>0</v>
       </c>
+      <c r="K33">
+        <v>-0.0002144136661211142</v>
+      </c>
+      <c r="L33">
+        <v>0.0001096946102777185</v>
+      </c>
+      <c r="Q33">
+        <v>0.06550120999916402</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1452,6 +1829,15 @@
       <c r="F34">
         <v>0</v>
       </c>
+      <c r="K34">
+        <v>0.0002028624037495943</v>
+      </c>
+      <c r="L34">
+        <v>0.0001642703093405557</v>
+      </c>
+      <c r="Q34">
+        <v>0.2346849536315274</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1488,6 +1874,21 @@
       <c r="H35">
         <v>2.761502311237612</v>
       </c>
+      <c r="K35">
+        <v>-0.0008137</v>
+      </c>
+      <c r="L35">
+        <v>0.00041109</v>
+      </c>
+      <c r="M35">
+        <v>0.0018458</v>
+      </c>
+      <c r="N35">
+        <v>0.0013776</v>
+      </c>
+      <c r="Q35">
+        <v>0.06420312776202128</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1524,6 +1925,21 @@
       <c r="H36">
         <v>0.7811965184830754</v>
       </c>
+      <c r="K36">
+        <v>0.080998</v>
+      </c>
+      <c r="L36">
+        <v>0.03167</v>
+      </c>
+      <c r="M36">
+        <v>-0.0075646</v>
+      </c>
+      <c r="N36">
+        <v>0.0028026</v>
+      </c>
+      <c r="Q36">
+        <v>0.02038921612805564</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1554,6 +1970,15 @@
       <c r="F37">
         <v>0</v>
       </c>
+      <c r="K37">
+        <v>-0.0004186306143521607</v>
+      </c>
+      <c r="L37">
+        <v>0.000261942697122249</v>
+      </c>
+      <c r="Q37">
+        <v>0.1274094578617148</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1584,6 +2009,15 @@
       <c r="F38">
         <v>0</v>
       </c>
+      <c r="K38">
+        <v>-0.0008712478632478633</v>
+      </c>
+      <c r="L38">
+        <v>0.0002498372588888444</v>
+      </c>
+      <c r="Q38">
+        <v>0.001901318752533573</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1614,6 +2048,15 @@
       <c r="F39">
         <v>0</v>
       </c>
+      <c r="K39">
+        <v>0.0001276238174416588</v>
+      </c>
+      <c r="L39">
+        <v>3.00251171102089e-005</v>
+      </c>
+      <c r="Q39">
+        <v>0.0006104667796222763</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1644,6 +2087,15 @@
       <c r="F40">
         <v>0</v>
       </c>
+      <c r="K40">
+        <v>-0.0002678396848662517</v>
+      </c>
+      <c r="L40">
+        <v>8.252303433724822e-005</v>
+      </c>
+      <c r="Q40">
+        <v>0.003566965741907849</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1674,6 +2126,15 @@
       <c r="F41">
         <v>0</v>
       </c>
+      <c r="K41">
+        <v>2.770753161077642e-005</v>
+      </c>
+      <c r="L41">
+        <v>9.071787146197846e-005</v>
+      </c>
+      <c r="Q41">
+        <v>0.7630491328752482</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1710,6 +2171,21 @@
       <c r="H42">
         <v>0.5929799589521866</v>
       </c>
+      <c r="K42">
+        <v>0.00018285</v>
+      </c>
+      <c r="L42">
+        <v>7.631000000000001e-005</v>
+      </c>
+      <c r="M42">
+        <v>-0.00355</v>
+      </c>
+      <c r="N42">
+        <v>0.0019175</v>
+      </c>
+      <c r="Q42">
+        <v>0.0337536007476426</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1740,6 +2216,15 @@
       <c r="F43">
         <v>0</v>
       </c>
+      <c r="K43">
+        <v>-0.0001254858949904642</v>
+      </c>
+      <c r="L43">
+        <v>4.385832179040839e-005</v>
+      </c>
+      <c r="Q43">
+        <v>0.008832316395596023</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1770,6 +2255,15 @@
       <c r="F44">
         <v>0</v>
       </c>
+      <c r="K44">
+        <v>7.239949314595041e-005</v>
+      </c>
+      <c r="L44">
+        <v>0.0001460379197573086</v>
+      </c>
+      <c r="Q44">
+        <v>0.6252135097418585</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1800,6 +2294,15 @@
       <c r="F45">
         <v>0</v>
       </c>
+      <c r="K45">
+        <v>0.0001997054345527595</v>
+      </c>
+      <c r="L45">
+        <v>6.527205544221443e-005</v>
+      </c>
+      <c r="Q45">
+        <v>0.005384222214814338</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1842,6 +2345,27 @@
       <c r="J46">
         <v>2.184868925465276</v>
       </c>
+      <c r="K46">
+        <v>-0.0026881</v>
+      </c>
+      <c r="L46">
+        <v>0.00035269</v>
+      </c>
+      <c r="M46">
+        <v>0.00036452</v>
+      </c>
+      <c r="N46">
+        <v>0.00022332</v>
+      </c>
+      <c r="O46">
+        <v>-0.0003989</v>
+      </c>
+      <c r="P46">
+        <v>0.00013936</v>
+      </c>
+      <c r="Q46">
+        <v>7.012283848983378e-007</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1872,6 +2396,15 @@
       <c r="F47">
         <v>0</v>
       </c>
+      <c r="K47">
+        <v>8.024796921760591e-005</v>
+      </c>
+      <c r="L47">
+        <v>0.0001457987180661605</v>
+      </c>
+      <c r="Q47">
+        <v>0.5941240323948474</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1902,6 +2435,15 @@
       <c r="F48">
         <v>0</v>
       </c>
+      <c r="K48">
+        <v>-0.0003368003382639738</v>
+      </c>
+      <c r="L48">
+        <v>0.0002612948928183347</v>
+      </c>
+      <c r="Q48">
+        <v>0.2102237770098216</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1938,6 +2480,21 @@
       <c r="H49">
         <v>2.141929736941056</v>
       </c>
+      <c r="K49">
+        <v>0.0031254</v>
+      </c>
+      <c r="L49">
+        <v>0.0014255</v>
+      </c>
+      <c r="M49">
+        <v>-0.0009795400000000001</v>
+      </c>
+      <c r="N49">
+        <v>0.00046779</v>
+      </c>
+      <c r="Q49">
+        <v>0.043469948894005</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1968,6 +2525,15 @@
       <c r="F50">
         <v>0</v>
       </c>
+      <c r="K50">
+        <v>-0.0001087835285228705</v>
+      </c>
+      <c r="L50">
+        <v>8.959232929845379e-005</v>
+      </c>
+      <c r="Q50">
+        <v>0.2403596556200094</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1998,6 +2564,15 @@
       <c r="F51">
         <v>0</v>
       </c>
+      <c r="K51">
+        <v>-0.0001877064756614559</v>
+      </c>
+      <c r="L51">
+        <v>0.0001554492340324048</v>
+      </c>
+      <c r="Q51">
+        <v>0.2406605202178472</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2028,6 +2603,15 @@
       <c r="F52">
         <v>0</v>
       </c>
+      <c r="K52">
+        <v>-0.0003462637362637347</v>
+      </c>
+      <c r="L52">
+        <v>9.268553459147384e-005</v>
+      </c>
+      <c r="Q52">
+        <v>0.0009730451731187315</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2064,6 +2648,21 @@
       <c r="H53">
         <v>1.614186036143869</v>
       </c>
+      <c r="K53">
+        <v>0.00038975</v>
+      </c>
+      <c r="L53">
+        <v>0.00018202</v>
+      </c>
+      <c r="M53">
+        <v>-0.0013787</v>
+      </c>
+      <c r="N53">
+        <v>0.00040478</v>
+      </c>
+      <c r="Q53">
+        <v>0.04307597853894156</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2094,6 +2693,15 @@
       <c r="F54">
         <v>0</v>
       </c>
+      <c r="K54">
+        <v>-0.0002922464957264956</v>
+      </c>
+      <c r="L54">
+        <v>7.407396454136104e-005</v>
+      </c>
+      <c r="Q54">
+        <v>0.0006048938250417125</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2124,6 +2732,15 @@
       <c r="F55">
         <v>0</v>
       </c>
+      <c r="K55">
+        <v>-0.0001696268508678719</v>
+      </c>
+      <c r="L55">
+        <v>6.545327677825564e-005</v>
+      </c>
+      <c r="Q55">
+        <v>0.01600631078641314</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2154,6 +2771,15 @@
       <c r="F56">
         <v>0</v>
       </c>
+      <c r="K56">
+        <v>-0.004801969135802469</v>
+      </c>
+      <c r="L56">
+        <v>0.001225547465147949</v>
+      </c>
+      <c r="Q56">
+        <v>0.0006890717268078228</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2190,6 +2816,21 @@
       <c r="H57">
         <v>0.6028379780006151</v>
       </c>
+      <c r="K57">
+        <v>-0.0985</v>
+      </c>
+      <c r="L57">
+        <v>0.022497</v>
+      </c>
+      <c r="M57">
+        <v>-0.0015986</v>
+      </c>
+      <c r="N57">
+        <v>0.0013326</v>
+      </c>
+      <c r="Q57">
+        <v>0.0004097518863878613</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2220,6 +2861,15 @@
       <c r="F58">
         <v>0</v>
       </c>
+      <c r="K58">
+        <v>-0.000105707845801982</v>
+      </c>
+      <c r="L58">
+        <v>5.200938265455118e-005</v>
+      </c>
+      <c r="Q58">
+        <v>0.05559818297322967</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2250,6 +2900,15 @@
       <c r="F59">
         <v>0</v>
       </c>
+      <c r="K59">
+        <v>-0.007773852875191954</v>
+      </c>
+      <c r="L59">
+        <v>0.002400433922932365</v>
+      </c>
+      <c r="Q59">
+        <v>0.003498199934448681</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2286,6 +2945,21 @@
       <c r="H60">
         <v>1.429309088617315</v>
       </c>
+      <c r="K60">
+        <v>0.00035101</v>
+      </c>
+      <c r="L60">
+        <v>0.00013355</v>
+      </c>
+      <c r="M60">
+        <v>-0.0010665</v>
+      </c>
+      <c r="N60">
+        <v>0.00028161</v>
+      </c>
+      <c r="Q60">
+        <v>0.01610421838906085</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2316,6 +2990,15 @@
       <c r="F61">
         <v>0</v>
       </c>
+      <c r="K61">
+        <v>-0.0005542188537811931</v>
+      </c>
+      <c r="L61">
+        <v>8.104833622228248e-005</v>
+      </c>
+      <c r="Q61">
+        <v>4.509569609458759e-007</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2352,6 +3035,21 @@
       <c r="H62">
         <v>0.5669704384066645</v>
       </c>
+      <c r="K62">
+        <v>0.00078836</v>
+      </c>
+      <c r="L62">
+        <v>0.00014539</v>
+      </c>
+      <c r="M62">
+        <v>-0.0008</v>
+      </c>
+      <c r="N62">
+        <v>0.00010338</v>
+      </c>
+      <c r="Q62">
+        <v>0.0001165800665977642</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2382,6 +3080,15 @@
       <c r="F63">
         <v>0</v>
       </c>
+      <c r="K63">
+        <v>-3.801304486159527e-005</v>
+      </c>
+      <c r="L63">
+        <v>0.0001188062723614617</v>
+      </c>
+      <c r="Q63">
+        <v>0.7534133536001499</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2412,6 +3119,15 @@
       <c r="F64">
         <v>0</v>
       </c>
+      <c r="K64">
+        <v>-0.0002821822090835824</v>
+      </c>
+      <c r="L64">
+        <v>0.0001008515500432236</v>
+      </c>
+      <c r="Q64">
+        <v>0.0114736485685467</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2448,6 +3164,21 @@
       <c r="H65">
         <v>2.462173302366598</v>
       </c>
+      <c r="K65">
+        <v>0.00013883</v>
+      </c>
+      <c r="L65">
+        <v>0.00040409</v>
+      </c>
+      <c r="M65">
+        <v>-0.0026163</v>
+      </c>
+      <c r="N65">
+        <v>0.001094</v>
+      </c>
+      <c r="Q65">
+        <v>0.7344365372381564</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2478,6 +3209,15 @@
       <c r="F66">
         <v>0</v>
       </c>
+      <c r="K66">
+        <v>-8.872101194657399e-005</v>
+      </c>
+      <c r="L66">
+        <v>0.0001058271464496895</v>
+      </c>
+      <c r="Q66">
+        <v>0.4196743089787977</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2508,6 +3248,15 @@
       <c r="F67">
         <v>0</v>
       </c>
+      <c r="K67">
+        <v>-0.0005088992400097974</v>
+      </c>
+      <c r="L67">
+        <v>0.0001640986666294961</v>
+      </c>
+      <c r="Q67">
+        <v>0.006163411040782568</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2538,6 +3287,15 @@
       <c r="F68">
         <v>0</v>
       </c>
+      <c r="K68">
+        <v>-0.0006459371020417823</v>
+      </c>
+      <c r="L68">
+        <v>0.0001399221078318058</v>
+      </c>
+      <c r="Q68">
+        <v>0.0001101429271809305</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2568,6 +3326,15 @@
       <c r="F69">
         <v>0</v>
       </c>
+      <c r="K69">
+        <v>-8.958054165062222e-005</v>
+      </c>
+      <c r="L69">
+        <v>6.327297758307494e-005</v>
+      </c>
+      <c r="Q69">
+        <v>0.1787015179483432</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2598,6 +3365,15 @@
       <c r="F70">
         <v>0</v>
       </c>
+      <c r="K70">
+        <v>-0.0007109608814846178</v>
+      </c>
+      <c r="L70">
+        <v>0.0001202168639005565</v>
+      </c>
+      <c r="Q70">
+        <v>2.180263069483023e-005</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2634,6 +3410,21 @@
       <c r="H71">
         <v>2.330293689748912</v>
       </c>
+      <c r="K71">
+        <v>0.00089863</v>
+      </c>
+      <c r="L71">
+        <v>0.00042985</v>
+      </c>
+      <c r="M71">
+        <v>-0.0012562</v>
+      </c>
+      <c r="N71">
+        <v>0.00048059</v>
+      </c>
+      <c r="Q71">
+        <v>0.04833605774076191</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2664,6 +3455,15 @@
       <c r="F72">
         <v>0</v>
       </c>
+      <c r="K72">
+        <v>-0.001190137871115105</v>
+      </c>
+      <c r="L72">
+        <v>0.0001831688258438002</v>
+      </c>
+      <c r="Q72">
+        <v>1.248679533835775e-006</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2694,6 +3494,15 @@
       <c r="F73">
         <v>0</v>
       </c>
+      <c r="K73">
+        <v>-0.0001842490842490833</v>
+      </c>
+      <c r="L73">
+        <v>0.0001907729374743171</v>
+      </c>
+      <c r="Q73">
+        <v>0.343393292273256</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2724,6 +3533,15 @@
       <c r="F74">
         <v>0</v>
       </c>
+      <c r="K74">
+        <v>0.0001442623697433238</v>
+      </c>
+      <c r="L74">
+        <v>4.828911134304394e-005</v>
+      </c>
+      <c r="Q74">
+        <v>0.006393109931670697</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2760,6 +3578,21 @@
       <c r="H75">
         <v>0.974837569210194</v>
       </c>
+      <c r="K75">
+        <v>0.00041909</v>
+      </c>
+      <c r="L75">
+        <v>0.00010855</v>
+      </c>
+      <c r="M75">
+        <v>-0.0023621</v>
+      </c>
+      <c r="N75">
+        <v>0.00072005</v>
+      </c>
+      <c r="Q75">
+        <v>0.0007944880445320316</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2790,6 +3623,15 @@
       <c r="F76">
         <v>0</v>
       </c>
+      <c r="K76">
+        <v>0.001390024006518737</v>
+      </c>
+      <c r="L76">
+        <v>0.0003570827944252055</v>
+      </c>
+      <c r="Q76">
+        <v>0.001170024453510176</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2832,6 +3674,27 @@
       <c r="J77">
         <v>0.6629203352828872</v>
       </c>
+      <c r="K77">
+        <v>0.00058256</v>
+      </c>
+      <c r="L77">
+        <v>0.00039985</v>
+      </c>
+      <c r="M77">
+        <v>0.0050057</v>
+      </c>
+      <c r="N77">
+        <v>0.0015716</v>
+      </c>
+      <c r="O77">
+        <v>-0.0065743</v>
+      </c>
+      <c r="P77">
+        <v>0.0015716</v>
+      </c>
+      <c r="Q77">
+        <v>0.1606487878717889</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2862,6 +3725,15 @@
       <c r="F78">
         <v>0</v>
       </c>
+      <c r="K78">
+        <v>-0.0003561660561660465</v>
+      </c>
+      <c r="L78">
+        <v>0.001154699834810833</v>
+      </c>
+      <c r="Q78">
+        <v>0.7602962559128871</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2892,6 +3764,15 @@
       <c r="F79">
         <v>0</v>
       </c>
+      <c r="K79">
+        <v>0.0006580687410700062</v>
+      </c>
+      <c r="L79">
+        <v>0.0002399130222708847</v>
+      </c>
+      <c r="Q79">
+        <v>0.01293112678069175</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2928,6 +3809,21 @@
       <c r="H80">
         <v>2.622848032256972</v>
       </c>
+      <c r="K80">
+        <v>0.00020732</v>
+      </c>
+      <c r="L80">
+        <v>0.00010951</v>
+      </c>
+      <c r="M80">
+        <v>-0.0004581</v>
+      </c>
+      <c r="N80">
+        <v>0.00023362</v>
+      </c>
+      <c r="Q80">
+        <v>0.07288422939871982</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2958,6 +3854,15 @@
       <c r="F81">
         <v>0</v>
       </c>
+      <c r="K81">
+        <v>-0.0002054579589614142</v>
+      </c>
+      <c r="L81">
+        <v>0.0002686931749777241</v>
+      </c>
+      <c r="Q81">
+        <v>0.451929741343481</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2988,6 +3893,15 @@
       <c r="F82">
         <v>0</v>
       </c>
+      <c r="K82">
+        <v>-0.0005939945684086801</v>
+      </c>
+      <c r="L82">
+        <v>0.000476191553133943</v>
+      </c>
+      <c r="Q82">
+        <v>0.2274128694277021</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3018,6 +3932,15 @@
       <c r="F83">
         <v>0</v>
       </c>
+      <c r="K83">
+        <v>-0.003172868090898336</v>
+      </c>
+      <c r="L83">
+        <v>0.0007335702075776185</v>
+      </c>
+      <c r="Q83">
+        <v>0.0002503129326787518</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3048,6 +3971,15 @@
       <c r="F84">
         <v>0</v>
       </c>
+      <c r="K84">
+        <v>-3.944521178637263e-005</v>
+      </c>
+      <c r="L84">
+        <v>5.281506093050692e-005</v>
+      </c>
+      <c r="Q84">
+        <v>0.4653556464938178</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3078,6 +4010,15 @@
       <c r="F85">
         <v>0</v>
       </c>
+      <c r="K85">
+        <v>-0.001172502469072972</v>
+      </c>
+      <c r="L85">
+        <v>0.0008010951793962661</v>
+      </c>
+      <c r="Q85">
+        <v>0.1568304463677301</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3108,6 +4049,15 @@
       <c r="F86">
         <v>0</v>
       </c>
+      <c r="K86">
+        <v>0.0001508859357696542</v>
+      </c>
+      <c r="L86">
+        <v>9.958391468555638e-005</v>
+      </c>
+      <c r="Q86">
+        <v>0.157925582548694</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3138,6 +4088,15 @@
       <c r="F87">
         <v>0</v>
       </c>
+      <c r="K87">
+        <v>-9.221255776025989e-005</v>
+      </c>
+      <c r="L87">
+        <v>0.0001936080258593641</v>
+      </c>
+      <c r="Q87">
+        <v>0.6412190837388545</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3168,6 +4127,15 @@
       <c r="F88">
         <v>0</v>
       </c>
+      <c r="K88">
+        <v>-5.682298739088338e-005</v>
+      </c>
+      <c r="L88">
+        <v>3.217996402495377e-005</v>
+      </c>
+      <c r="Q88">
+        <v>0.09196801930848136</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3198,6 +4166,15 @@
       <c r="F89">
         <v>0</v>
       </c>
+      <c r="K89">
+        <v>-0.0001077192982456093</v>
+      </c>
+      <c r="L89">
+        <v>0.0007655274932903082</v>
+      </c>
+      <c r="Q89">
+        <v>0.8897509288486936</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3234,6 +4211,21 @@
       <c r="H90">
         <v>0.7862224819739172</v>
       </c>
+      <c r="K90">
+        <v>-0.0025</v>
+      </c>
+      <c r="L90">
+        <v>0.00062285</v>
+      </c>
+      <c r="M90">
+        <v>0.00022191</v>
+      </c>
+      <c r="N90">
+        <v>6.2566e-005</v>
+      </c>
+      <c r="Q90">
+        <v>0.0008999111162460916</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3264,6 +4256,15 @@
       <c r="F91">
         <v>0</v>
       </c>
+      <c r="K91">
+        <v>-0.0001603605470368821</v>
+      </c>
+      <c r="L91">
+        <v>0.0001713853262170424</v>
+      </c>
+      <c r="Q91">
+        <v>0.3618262194454351</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3294,6 +4295,15 @@
       <c r="F92">
         <v>0</v>
       </c>
+      <c r="K92">
+        <v>-0.0004687624353362408</v>
+      </c>
+      <c r="L92">
+        <v>0.000119931194550147</v>
+      </c>
+      <c r="Q92">
+        <v>0.001029508939651449</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3324,6 +4334,15 @@
       <c r="F93">
         <v>0</v>
       </c>
+      <c r="K93">
+        <v>-0.0001016352136752136</v>
+      </c>
+      <c r="L93">
+        <v>4.546804284639367e-005</v>
+      </c>
+      <c r="Q93">
+        <v>0.03496390883446258</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3354,6 +4373,15 @@
       <c r="F94">
         <v>0</v>
       </c>
+      <c r="K94">
+        <v>-6.870192613817752e-005</v>
+      </c>
+      <c r="L94">
+        <v>6.326514398260596e-005</v>
+      </c>
+      <c r="Q94">
+        <v>0.2926663652760164</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3384,6 +4412,15 @@
       <c r="F95">
         <v>0</v>
       </c>
+      <c r="K95">
+        <v>1.83028408718989e-005</v>
+      </c>
+      <c r="L95">
+        <v>2.810975767146632e-005</v>
+      </c>
+      <c r="Q95">
+        <v>0.5220305089049222</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3414,6 +4451,15 @@
       <c r="F96">
         <v>0</v>
       </c>
+      <c r="K96">
+        <v>-8.895456295725506e-005</v>
+      </c>
+      <c r="L96">
+        <v>3.285144117568194e-005</v>
+      </c>
+      <c r="Q96">
+        <v>0.0144113997358891</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3444,6 +4490,15 @@
       <c r="F97">
         <v>0</v>
       </c>
+      <c r="K97">
+        <v>-2.232543821526351e-005</v>
+      </c>
+      <c r="L97">
+        <v>3.555137931167532e-005</v>
+      </c>
+      <c r="Q97">
+        <v>0.5383645261832093</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3474,6 +4529,15 @@
       <c r="F98">
         <v>0</v>
       </c>
+      <c r="K98">
+        <v>3.890372744539309e-005</v>
+      </c>
+      <c r="L98">
+        <v>3.816939237343307e-005</v>
+      </c>
+      <c r="Q98">
+        <v>0.3186917095575044</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3504,6 +4568,15 @@
       <c r="F99">
         <v>0</v>
       </c>
+      <c r="K99">
+        <v>0.001443380782918139</v>
+      </c>
+      <c r="L99">
+        <v>0.0006276709245682955</v>
+      </c>
+      <c r="Q99">
+        <v>0.03298081822328434</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3534,6 +4607,15 @@
       <c r="F100">
         <v>0</v>
       </c>
+      <c r="K100">
+        <v>-0.0005911902897415797</v>
+      </c>
+      <c r="L100">
+        <v>0.0002988573027516126</v>
+      </c>
+      <c r="Q100">
+        <v>0.06342312482731989</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3564,6 +4646,15 @@
       <c r="F101">
         <v>0</v>
       </c>
+      <c r="K101">
+        <v>-0.0004422858541360774</v>
+      </c>
+      <c r="L101">
+        <v>0.0001741939999595423</v>
+      </c>
+      <c r="Q101">
+        <v>0.01801331908354314</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3594,6 +4685,15 @@
       <c r="F102">
         <v>0</v>
       </c>
+      <c r="K102">
+        <v>-0.0004063492063492054</v>
+      </c>
+      <c r="L102">
+        <v>0.0003262672535745538</v>
+      </c>
+      <c r="Q102">
+        <v>0.2245139089603044</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3624,6 +4724,15 @@
       <c r="F103">
         <v>0</v>
       </c>
+      <c r="K103">
+        <v>-0.00154962515262515</v>
+      </c>
+      <c r="L103">
+        <v>0.0003530986779900186</v>
+      </c>
+      <c r="Q103">
+        <v>0.0001817350164975379</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3654,6 +4763,15 @@
       <c r="F104">
         <v>0</v>
       </c>
+      <c r="K104">
+        <v>-8.184155951887189e-005</v>
+      </c>
+      <c r="L104">
+        <v>9.298991342828351e-005</v>
+      </c>
+      <c r="Q104">
+        <v>0.3936558801163834</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3690,6 +4808,21 @@
       <c r="H105">
         <v>1.651464654966294</v>
       </c>
+      <c r="K105">
+        <v>-0.00018363</v>
+      </c>
+      <c r="L105">
+        <v>4.6111e-005</v>
+      </c>
+      <c r="M105">
+        <v>0.00056879</v>
+      </c>
+      <c r="N105">
+        <v>0.00034291</v>
+      </c>
+      <c r="Q105">
+        <v>0.0008735795245943197</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3726,6 +4859,21 @@
       <c r="H106">
         <v>0.94655392175939</v>
       </c>
+      <c r="K106">
+        <v>-7.255800000000001e-005</v>
+      </c>
+      <c r="L106">
+        <v>2.4314e-005</v>
+      </c>
+      <c r="M106">
+        <v>0.00044651</v>
+      </c>
+      <c r="N106">
+        <v>0.00013371</v>
+      </c>
+      <c r="Q106">
+        <v>0.009265490321250534</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3756,6 +4904,15 @@
       <c r="F107">
         <v>0</v>
       </c>
+      <c r="K107">
+        <v>-3.680843263061323e-005</v>
+      </c>
+      <c r="L107">
+        <v>3.927094311321995e-005</v>
+      </c>
+      <c r="Q107">
+        <v>0.3583459026023388</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3786,6 +4943,15 @@
       <c r="F108">
         <v>0</v>
       </c>
+      <c r="K108">
+        <v>-0.0001003294022617125</v>
+      </c>
+      <c r="L108">
+        <v>2.429889173391964e-005</v>
+      </c>
+      <c r="Q108">
+        <v>0.001022645382399443</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3816,6 +4982,15 @@
       <c r="F109">
         <v>0</v>
       </c>
+      <c r="K109">
+        <v>-4.342394406392692e-005</v>
+      </c>
+      <c r="L109">
+        <v>2.266344206812889e-005</v>
+      </c>
+      <c r="Q109">
+        <v>0.07461872003587448</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3846,6 +5021,15 @@
       <c r="F110">
         <v>0</v>
       </c>
+      <c r="K110">
+        <v>-0.0004181153846153834</v>
+      </c>
+      <c r="L110">
+        <v>9.853405734525904e-005</v>
+      </c>
+      <c r="Q110">
+        <v>0.0002646442124775477</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3876,6 +5060,15 @@
       <c r="F111">
         <v>0</v>
       </c>
+      <c r="K111">
+        <v>-0.0006185927993701263</v>
+      </c>
+      <c r="L111">
+        <v>8.764710549712271e-005</v>
+      </c>
+      <c r="Q111">
+        <v>2.691432894161565e-007</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3906,6 +5099,15 @@
       <c r="F112">
         <v>0</v>
       </c>
+      <c r="K112">
+        <v>2.268986597695728e-005</v>
+      </c>
+      <c r="L112">
+        <v>6.077020068404255e-005</v>
+      </c>
+      <c r="Q112">
+        <v>0.7159674976251242</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3936,6 +5138,15 @@
       <c r="F113">
         <v>0</v>
       </c>
+      <c r="K113">
+        <v>1.32928121420386e-005</v>
+      </c>
+      <c r="L113">
+        <v>2.073737933305866e-005</v>
+      </c>
+      <c r="Q113">
+        <v>0.537496473798435</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3966,6 +5177,15 @@
       <c r="F114">
         <v>0</v>
       </c>
+      <c r="K114">
+        <v>-2.594523162763319e-005</v>
+      </c>
+      <c r="L114">
+        <v>1.809490272187958e-005</v>
+      </c>
+      <c r="Q114">
+        <v>0.1678704409471147</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3996,6 +5216,15 @@
       <c r="F115">
         <v>0</v>
       </c>
+      <c r="K115">
+        <v>4.908471927670767e-005</v>
+      </c>
+      <c r="L115">
+        <v>0.0002972046623970214</v>
+      </c>
+      <c r="Q115">
+        <v>0.8705668172910147</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4026,6 +5255,15 @@
       <c r="F116">
         <v>0</v>
       </c>
+      <c r="K116">
+        <v>-2.779972306142946e-005</v>
+      </c>
+      <c r="L116">
+        <v>2.540592120317573e-005</v>
+      </c>
+      <c r="Q116">
+        <v>0.2972393557212979</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4056,6 +5294,15 @@
       <c r="F117">
         <v>0</v>
       </c>
+      <c r="K117">
+        <v>-0.0001482014388489205</v>
+      </c>
+      <c r="L117">
+        <v>0.000174208257908943</v>
+      </c>
+      <c r="Q117">
+        <v>0.408303417204287</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4086,6 +5333,15 @@
       <c r="F118">
         <v>0</v>
       </c>
+      <c r="K118">
+        <v>5.589819318971567e-005</v>
+      </c>
+      <c r="L118">
+        <v>8.258837211820622e-005</v>
+      </c>
+      <c r="Q118">
+        <v>0.5103790569947081</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4116,6 +5372,15 @@
       <c r="F119">
         <v>0</v>
       </c>
+      <c r="K119">
+        <v>-1.325732255712196e-005</v>
+      </c>
+      <c r="L119">
+        <v>3.838425003063699e-005</v>
+      </c>
+      <c r="Q119">
+        <v>0.7332410622897626</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4146,6 +5411,15 @@
       <c r="F120">
         <v>0</v>
       </c>
+      <c r="K120">
+        <v>9.347657547902408e-006</v>
+      </c>
+      <c r="L120">
+        <v>3.453874900415252e-005</v>
+      </c>
+      <c r="Q120">
+        <v>0.7912647340883529</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4182,6 +5456,21 @@
       <c r="H121">
         <v>1.552797032852834</v>
       </c>
+      <c r="K121">
+        <v>0.00016406</v>
+      </c>
+      <c r="L121">
+        <v>4.6832e-005</v>
+      </c>
+      <c r="M121">
+        <v>-0.00063286</v>
+      </c>
+      <c r="N121">
+        <v>0.00028714</v>
+      </c>
+      <c r="Q121">
+        <v>0.002378525917621816</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4212,6 +5501,15 @@
       <c r="F122">
         <v>0</v>
       </c>
+      <c r="K122">
+        <v>3.721597233934704e-005</v>
+      </c>
+      <c r="L122">
+        <v>2.719034630580622e-005</v>
+      </c>
+      <c r="Q122">
+        <v>0.1879274989665165</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4242,6 +5540,15 @@
       <c r="F123">
         <v>0</v>
       </c>
+      <c r="K123">
+        <v>-0.0003123949938949923</v>
+      </c>
+      <c r="L123">
+        <v>8.82009989852586e-005</v>
+      </c>
+      <c r="Q123">
+        <v>0.001589353102412667</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4272,6 +5579,15 @@
       <c r="F124">
         <v>0</v>
       </c>
+      <c r="K124">
+        <v>-0.0001009768009768004</v>
+      </c>
+      <c r="L124">
+        <v>3.892297828172142e-005</v>
+      </c>
+      <c r="Q124">
+        <v>0.01562806154392632</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4302,6 +5618,15 @@
       <c r="F125">
         <v>0</v>
       </c>
+      <c r="K125">
+        <v>5.523446878166545e-005</v>
+      </c>
+      <c r="L125">
+        <v>2.450618334655323e-005</v>
+      </c>
+      <c r="Q125">
+        <v>0.03620509665441535</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4338,6 +5663,21 @@
       <c r="H126">
         <v>2.557315623716898</v>
       </c>
+      <c r="K126">
+        <v>-0.00012744</v>
+      </c>
+      <c r="L126">
+        <v>5.5405e-005</v>
+      </c>
+      <c r="M126">
+        <v>0.00014714</v>
+      </c>
+      <c r="N126">
+        <v>7.0077e-005</v>
+      </c>
+      <c r="Q126">
+        <v>0.03179334592885535</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4368,6 +5708,15 @@
       <c r="F127">
         <v>0</v>
       </c>
+      <c r="K127">
+        <v>4.360526315789437e-005</v>
+      </c>
+      <c r="L127">
+        <v>2.921291975161799e-005</v>
+      </c>
+      <c r="Q127">
+        <v>0.1562564485353099</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4398,6 +5747,15 @@
       <c r="F128">
         <v>0</v>
       </c>
+      <c r="K128">
+        <v>4.724694104560848e-005</v>
+      </c>
+      <c r="L128">
+        <v>3.822514887287735e-005</v>
+      </c>
+      <c r="Q128">
+        <v>0.2401006625032468</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4428,6 +5786,15 @@
       <c r="F129">
         <v>0</v>
       </c>
+      <c r="K129">
+        <v>4.855878666332456e-005</v>
+      </c>
+      <c r="L129">
+        <v>3.119004618257886e-005</v>
+      </c>
+      <c r="Q129">
+        <v>0.1369093663915747</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4464,6 +5831,21 @@
       <c r="H130">
         <v>2.313283778216968</v>
       </c>
+      <c r="K130">
+        <v>-0.00035714</v>
+      </c>
+      <c r="L130">
+        <v>0.00017961</v>
+      </c>
+      <c r="M130">
+        <v>4.7761e-005</v>
+      </c>
+      <c r="N130">
+        <v>4.6356e-005</v>
+      </c>
+      <c r="Q130">
+        <v>0.06311226838881745</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4500,6 +5882,21 @@
       <c r="H131">
         <v>0.9280666121304496</v>
       </c>
+      <c r="K131">
+        <v>-0.0014643</v>
+      </c>
+      <c r="L131">
+        <v>0.00024028</v>
+      </c>
+      <c r="M131">
+        <v>-0.00013435</v>
+      </c>
+      <c r="N131">
+        <v>8.106300000000001e-005</v>
+      </c>
+      <c r="Q131">
+        <v>5.383756984442834e-005</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4530,6 +5927,15 @@
       <c r="F132">
         <v>0</v>
       </c>
+      <c r="K132">
+        <v>-2.485893032384778e-005</v>
+      </c>
+      <c r="L132">
+        <v>3.137856509640727e-005</v>
+      </c>
+      <c r="Q132">
+        <v>0.444978080132697</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4566,6 +5972,21 @@
       <c r="H133">
         <v>1.97999664459994</v>
       </c>
+      <c r="K133">
+        <v>-0.00013226</v>
+      </c>
+      <c r="L133">
+        <v>5.8012e-005</v>
+      </c>
+      <c r="M133">
+        <v>0.00035051</v>
+      </c>
+      <c r="N133">
+        <v>0.000146</v>
+      </c>
+      <c r="Q133">
+        <v>0.03579441368850758</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4596,6 +6017,15 @@
       <c r="F134">
         <v>0</v>
       </c>
+      <c r="K134">
+        <v>-0.0003076522403139077</v>
+      </c>
+      <c r="L134">
+        <v>0.0001125128272176657</v>
+      </c>
+      <c r="Q134">
+        <v>0.01155675618634576</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4626,6 +6056,15 @@
       <c r="F135">
         <v>0</v>
       </c>
+      <c r="K135">
+        <v>6.491533180778055e-005</v>
+      </c>
+      <c r="L135">
+        <v>4.403573601509759e-005</v>
+      </c>
+      <c r="Q135">
+        <v>0.1661856896117223</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4662,6 +6101,21 @@
       <c r="H136">
         <v>2.053456536023715</v>
       </c>
+      <c r="K136">
+        <v>0.00024465</v>
+      </c>
+      <c r="L136">
+        <v>0.00011148</v>
+      </c>
+      <c r="M136">
+        <v>-0.0004642</v>
+      </c>
+      <c r="N136">
+        <v>0.00015901</v>
+      </c>
+      <c r="Q136">
+        <v>0.04017831795639054</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4692,6 +6146,15 @@
       <c r="F137">
         <v>0</v>
       </c>
+      <c r="K137">
+        <v>-7.474573076069989e-005</v>
+      </c>
+      <c r="L137">
+        <v>2.19639435537912e-005</v>
+      </c>
+      <c r="Q137">
+        <v>0.005896598310868337</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4722,6 +6185,15 @@
       <c r="F138">
         <v>0</v>
       </c>
+      <c r="K138">
+        <v>-5.331864904561098e-007</v>
+      </c>
+      <c r="L138">
+        <v>1.567043010480342e-005</v>
+      </c>
+      <c r="Q138">
+        <v>0.9731386146778256</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4752,6 +6224,15 @@
       <c r="F139">
         <v>0</v>
       </c>
+      <c r="K139">
+        <v>-0.0001381039121778006</v>
+      </c>
+      <c r="L139">
+        <v>4.314938963165705e-005</v>
+      </c>
+      <c r="Q139">
+        <v>0.004297535368924914</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4782,6 +6263,15 @@
       <c r="F140">
         <v>0</v>
       </c>
+      <c r="K140">
+        <v>-0.0002101746031746025</v>
+      </c>
+      <c r="L140">
+        <v>3.968930137589561e-005</v>
+      </c>
+      <c r="Q140">
+        <v>1.73828745651847e-005</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4818,6 +6308,21 @@
       <c r="H141">
         <v>1.826757280884702</v>
       </c>
+      <c r="K141">
+        <v>0.00027473</v>
+      </c>
+      <c r="L141">
+        <v>0.00014131</v>
+      </c>
+      <c r="M141">
+        <v>-0.00052921</v>
+      </c>
+      <c r="N141">
+        <v>0.00012639</v>
+      </c>
+      <c r="Q141">
+        <v>0.06421328179969163</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4848,6 +6353,15 @@
       <c r="F142">
         <v>0</v>
       </c>
+      <c r="K142">
+        <v>-0.0001639084540302287</v>
+      </c>
+      <c r="L142">
+        <v>6.670366460985881e-005</v>
+      </c>
+      <c r="Q142">
+        <v>0.02881688559533598</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4878,6 +6392,15 @@
       <c r="F143">
         <v>0</v>
       </c>
+      <c r="K143">
+        <v>8.756260246786341e-005</v>
+      </c>
+      <c r="L143">
+        <v>7.968809707486212e-005</v>
+      </c>
+      <c r="Q143">
+        <v>0.2837281999588668</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4908,6 +6431,15 @@
       <c r="F144">
         <v>0</v>
       </c>
+      <c r="K144">
+        <v>-9.512561735022633e-005</v>
+      </c>
+      <c r="L144">
+        <v>5.900264945981338e-005</v>
+      </c>
+      <c r="Q144">
+        <v>0.1199868128060401</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4944,6 +6476,21 @@
       <c r="H145">
         <v>2.814848040100355</v>
       </c>
+      <c r="K145">
+        <v>-0.00027813</v>
+      </c>
+      <c r="L145">
+        <v>0.00011092</v>
+      </c>
+      <c r="M145">
+        <v>5.4306e-005</v>
+      </c>
+      <c r="N145">
+        <v>5.3069e-005</v>
+      </c>
+      <c r="Q145">
+        <v>0.02196678086293419</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4974,6 +6521,15 @@
       <c r="F146">
         <v>0</v>
       </c>
+      <c r="K146">
+        <v>-0.000148231911213606</v>
+      </c>
+      <c r="L146">
+        <v>4.052543410898724e-005</v>
+      </c>
+      <c r="Q146">
+        <v>0.001468208196747591</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5004,6 +6560,15 @@
       <c r="F147">
         <v>0</v>
       </c>
+      <c r="K147">
+        <v>-5.948334662332104e-005</v>
+      </c>
+      <c r="L147">
+        <v>4.549032111505286e-005</v>
+      </c>
+      <c r="Q147">
+        <v>0.2120741469174104</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5034,6 +6599,15 @@
       <c r="F148">
         <v>0</v>
       </c>
+      <c r="K148">
+        <v>-0.0001395191020086683</v>
+      </c>
+      <c r="L148">
+        <v>7.160258770136157e-005</v>
+      </c>
+      <c r="Q148">
+        <v>0.06484000345235619</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5064,6 +6638,15 @@
       <c r="F149">
         <v>0</v>
       </c>
+      <c r="K149">
+        <v>-6.328584804244517e-005</v>
+      </c>
+      <c r="L149">
+        <v>2.717610931484501e-005</v>
+      </c>
+      <c r="Q149">
+        <v>0.03047317431605447</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5100,6 +6683,21 @@
       <c r="H150">
         <v>2.044463195591618</v>
       </c>
+      <c r="K150">
+        <v>0.00076786</v>
+      </c>
+      <c r="L150">
+        <v>0.00025668</v>
+      </c>
+      <c r="M150">
+        <v>-0.00064155</v>
+      </c>
+      <c r="N150">
+        <v>0.00036712</v>
+      </c>
+      <c r="Q150">
+        <v>0.02018426637603342</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5130,6 +6728,15 @@
       <c r="F151">
         <v>0</v>
       </c>
+      <c r="K151">
+        <v>-5.242673992673965e-005</v>
+      </c>
+      <c r="L151">
+        <v>5.596544598857238e-005</v>
+      </c>
+      <c r="Q151">
+        <v>0.3578389933088292</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5160,6 +6767,15 @@
       <c r="F152">
         <v>0</v>
       </c>
+      <c r="K152">
+        <v>-0.0001862078112503341</v>
+      </c>
+      <c r="L152">
+        <v>8.019022920425122e-005</v>
+      </c>
+      <c r="Q152">
+        <v>0.03581733910783941</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5190,6 +6806,15 @@
       <c r="F153">
         <v>0</v>
       </c>
+      <c r="K153">
+        <v>-2.384169692967991e-005</v>
+      </c>
+      <c r="L153">
+        <v>2.802406081751345e-005</v>
+      </c>
+      <c r="Q153">
+        <v>0.4103005813468863</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5220,6 +6845,15 @@
       <c r="F154">
         <v>0</v>
       </c>
+      <c r="K154">
+        <v>-0.000168291752498664</v>
+      </c>
+      <c r="L154">
+        <v>0.0002138145241238385</v>
+      </c>
+      <c r="Q154">
+        <v>0.4389319081082576</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5250,6 +6884,15 @@
       <c r="F155">
         <v>0</v>
       </c>
+      <c r="K155">
+        <v>-5.485271317830151e-005</v>
+      </c>
+      <c r="L155">
+        <v>2.966821964688544e-005</v>
+      </c>
+      <c r="Q155">
+        <v>0.0942193188444958</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5280,6 +6923,15 @@
       <c r="F156">
         <v>0</v>
       </c>
+      <c r="K156">
+        <v>-6.850196174595269e-005</v>
+      </c>
+      <c r="L156">
+        <v>2.328769942017966e-005</v>
+      </c>
+      <c r="Q156">
+        <v>0.01145632028747685</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5310,6 +6962,15 @@
       <c r="F157">
         <v>0</v>
       </c>
+      <c r="K157">
+        <v>-5.580357142857306e-005</v>
+      </c>
+      <c r="L157">
+        <v>2.889547510157401e-005</v>
+      </c>
+      <c r="Q157">
+        <v>0.07136861165302103</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5346,6 +7007,21 @@
       <c r="H158">
         <v>1.593098449584691</v>
       </c>
+      <c r="K158">
+        <v>0.00028535</v>
+      </c>
+      <c r="L158">
+        <v>0.00016233</v>
+      </c>
+      <c r="M158">
+        <v>-0.0015968</v>
+      </c>
+      <c r="N158">
+        <v>0.00054963</v>
+      </c>
+      <c r="Q158">
+        <v>0.09788764323971917</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5376,6 +7052,15 @@
       <c r="F159">
         <v>0</v>
       </c>
+      <c r="K159">
+        <v>0.0001652927580893597</v>
+      </c>
+      <c r="L159">
+        <v>7.593123150358445e-005</v>
+      </c>
+      <c r="Q159">
+        <v>0.04164144381587932</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5412,6 +7097,21 @@
       <c r="H160">
         <v>2.611538888187669</v>
       </c>
+      <c r="K160">
+        <v>0.00018086</v>
+      </c>
+      <c r="L160">
+        <v>0.00011949</v>
+      </c>
+      <c r="M160">
+        <v>-0.0003429</v>
+      </c>
+      <c r="N160">
+        <v>0.0001316</v>
+      </c>
+      <c r="Q160">
+        <v>0.1443670819320996</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5442,6 +7142,15 @@
       <c r="F161">
         <v>0</v>
       </c>
+      <c r="K161">
+        <v>-0.0006650152625152583</v>
+      </c>
+      <c r="L161">
+        <v>0.0003852464773724205</v>
+      </c>
+      <c r="Q161">
+        <v>0.09665030974927213</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5478,6 +7187,21 @@
       <c r="H162">
         <v>1.679998306280229</v>
       </c>
+      <c r="K162">
+        <v>8.1443e-005</v>
+      </c>
+      <c r="L162">
+        <v>4.3993e-005</v>
+      </c>
+      <c r="M162">
+        <v>-0.00053882</v>
+      </c>
+      <c r="N162">
+        <v>0.00029182</v>
+      </c>
+      <c r="Q162">
+        <v>0.07701732518253715</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5508,6 +7232,15 @@
       <c r="F163">
         <v>0</v>
       </c>
+      <c r="K163">
+        <v>-3.766788766788731e-005</v>
+      </c>
+      <c r="L163">
+        <v>0.0001516433713824464</v>
+      </c>
+      <c r="Q163">
+        <v>0.8058557271639116</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5538,6 +7271,15 @@
       <c r="F164">
         <v>0</v>
       </c>
+      <c r="K164">
+        <v>-0.000127985074626866</v>
+      </c>
+      <c r="L164">
+        <v>7.617674367758117e-005</v>
+      </c>
+      <c r="Q164">
+        <v>0.1059087101956907</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5568,6 +7310,15 @@
       <c r="F165">
         <v>0</v>
       </c>
+      <c r="K165">
+        <v>8.070807120867312e-006</v>
+      </c>
+      <c r="L165">
+        <v>2.966593572297095e-005</v>
+      </c>
+      <c r="Q165">
+        <v>0.7892877099376243</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5598,6 +7349,15 @@
       <c r="F166">
         <v>0</v>
       </c>
+      <c r="K166">
+        <v>-5.555775188994837e-005</v>
+      </c>
+      <c r="L166">
+        <v>4.747105075735746e-005</v>
+      </c>
+      <c r="Q166">
+        <v>0.254970869425853</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5628,6 +7388,15 @@
       <c r="F167">
         <v>0</v>
       </c>
+      <c r="K167">
+        <v>0.001056746645796051</v>
+      </c>
+      <c r="L167">
+        <v>0.000620199407924245</v>
+      </c>
+      <c r="Q167">
+        <v>0.1090243283225867</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5658,6 +7427,15 @@
       <c r="F168">
         <v>0</v>
       </c>
+      <c r="K168">
+        <v>-0.0004117124786324789</v>
+      </c>
+      <c r="L168">
+        <v>0.0001361739272197421</v>
+      </c>
+      <c r="Q168">
+        <v>0.005869302828535684</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5688,6 +7466,15 @@
       <c r="F169">
         <v>0</v>
       </c>
+      <c r="K169">
+        <v>-0.0006593153104925109</v>
+      </c>
+      <c r="L169">
+        <v>0.0001411803813001262</v>
+      </c>
+      <c r="Q169">
+        <v>0.0001174736365510184</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5718,6 +7505,15 @@
       <c r="F170">
         <v>0</v>
       </c>
+      <c r="K170">
+        <v>0.0007474555580987279</v>
+      </c>
+      <c r="L170">
+        <v>0.0001424367732389427</v>
+      </c>
+      <c r="Q170">
+        <v>2.222683851736377e-005</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5748,6 +7544,15 @@
       <c r="F171">
         <v>0</v>
       </c>
+      <c r="K171">
+        <v>-0.001696581196581188</v>
+      </c>
+      <c r="L171">
+        <v>0.0007144488486923605</v>
+      </c>
+      <c r="Q171">
+        <v>0.02555236800174693</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5778,6 +7583,15 @@
       <c r="F172">
         <v>0</v>
       </c>
+      <c r="K172">
+        <v>-0.0004108650788257775</v>
+      </c>
+      <c r="L172">
+        <v>0.000410621218946752</v>
+      </c>
+      <c r="Q172">
+        <v>0.3284140723080709</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5808,6 +7622,15 @@
       <c r="F173">
         <v>0</v>
       </c>
+      <c r="K173">
+        <v>-0.001167955115396152</v>
+      </c>
+      <c r="L173">
+        <v>0.0003499240868106663</v>
+      </c>
+      <c r="Q173">
+        <v>0.002858039434924642</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5838,6 +7661,15 @@
       <c r="F174">
         <v>0</v>
       </c>
+      <c r="K174">
+        <v>-0.0001889367647058763</v>
+      </c>
+      <c r="L174">
+        <v>8.048657063226715e-005</v>
+      </c>
+      <c r="Q174">
+        <v>0.02830948318964651</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5868,6 +7700,15 @@
       <c r="F175">
         <v>0</v>
       </c>
+      <c r="K175">
+        <v>0.0003500296411144978</v>
+      </c>
+      <c r="L175">
+        <v>0.0001064438766454378</v>
+      </c>
+      <c r="Q175">
+        <v>0.003672877400689961</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5898,6 +7739,15 @@
       <c r="F176">
         <v>0</v>
       </c>
+      <c r="K176">
+        <v>0.0002084958008398247</v>
+      </c>
+      <c r="L176">
+        <v>6.375972307154974e-005</v>
+      </c>
+      <c r="Q176">
+        <v>0.003830884798676008</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5940,6 +7790,27 @@
       <c r="J177">
         <v>1.559361782076153</v>
       </c>
+      <c r="K177">
+        <v>-0.007900000000000001</v>
+      </c>
+      <c r="L177">
+        <v>0.0023102</v>
+      </c>
+      <c r="M177">
+        <v>0.0016753</v>
+      </c>
+      <c r="N177">
+        <v>0.00037</v>
+      </c>
+      <c r="O177">
+        <v>-0.0013484</v>
+      </c>
+      <c r="P177">
+        <v>0.00093031</v>
+      </c>
+      <c r="Q177">
+        <v>0.003266273298543542</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5970,6 +7841,15 @@
       <c r="F178">
         <v>0</v>
       </c>
+      <c r="K178">
+        <v>-0.0002711012032932313</v>
+      </c>
+      <c r="L178">
+        <v>8.662844842923133e-005</v>
+      </c>
+      <c r="Q178">
+        <v>0.004876854896928579</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6006,6 +7886,21 @@
       <c r="H179">
         <v>1.207673932488453</v>
       </c>
+      <c r="K179">
+        <v>-0.0016</v>
+      </c>
+      <c r="L179">
+        <v>0.00077313</v>
+      </c>
+      <c r="M179">
+        <v>-8.2943e-005</v>
+      </c>
+      <c r="N179">
+        <v>5.6234e-005</v>
+      </c>
+      <c r="Q179">
+        <v>0.05044408138963513</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6036,6 +7931,15 @@
       <c r="F180">
         <v>0</v>
       </c>
+      <c r="K180">
+        <v>-0.0001746975531488177</v>
+      </c>
+      <c r="L180">
+        <v>7.691901937411669e-005</v>
+      </c>
+      <c r="Q180">
+        <v>0.0323902304318881</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6072,6 +7976,21 @@
       <c r="H181">
         <v>1.00581186959935</v>
       </c>
+      <c r="K181">
+        <v>-0.00020791</v>
+      </c>
+      <c r="L181">
+        <v>4.5825e-005</v>
+      </c>
+      <c r="M181">
+        <v>0.00084569</v>
+      </c>
+      <c r="N181">
+        <v>0.00024412</v>
+      </c>
+      <c r="Q181">
+        <v>0.0002006356227053454</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6102,6 +8021,15 @@
       <c r="F182">
         <v>0</v>
       </c>
+      <c r="K182">
+        <v>-3.578497525865662e-005</v>
+      </c>
+      <c r="L182">
+        <v>6.405185097257465e-005</v>
+      </c>
+      <c r="Q182">
+        <v>0.5817740634774097</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6132,6 +8060,15 @@
       <c r="F183">
         <v>0</v>
       </c>
+      <c r="K183">
+        <v>-0.0004589806220485303</v>
+      </c>
+      <c r="L183">
+        <v>8.913942568911622e-005</v>
+      </c>
+      <c r="Q183">
+        <v>3.225704054050498e-005</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6162,6 +8099,15 @@
       <c r="F184">
         <v>0</v>
       </c>
+      <c r="K184">
+        <v>-0.0006841140313692354</v>
+      </c>
+      <c r="L184">
+        <v>0.0006276001935309033</v>
+      </c>
+      <c r="Q184">
+        <v>0.2928942670003993</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6192,6 +8138,15 @@
       <c r="F185">
         <v>0</v>
       </c>
+      <c r="K185">
+        <v>-0.0001998744865794243</v>
+      </c>
+      <c r="L185">
+        <v>8.067579713441083e-005</v>
+      </c>
+      <c r="Q185">
+        <v>0.02139103994784466</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6222,6 +8177,15 @@
       <c r="F186">
         <v>0</v>
       </c>
+      <c r="K186">
+        <v>-6.31768668754146e-005</v>
+      </c>
+      <c r="L186">
+        <v>0.0001331809410030688</v>
+      </c>
+      <c r="Q186">
+        <v>0.6395247284179717</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6252,6 +8216,15 @@
       <c r="F187">
         <v>0</v>
       </c>
+      <c r="K187">
+        <v>-0.0005319044463188504</v>
+      </c>
+      <c r="L187">
+        <v>0.0001064659579495895</v>
+      </c>
+      <c r="Q187">
+        <v>6.05057695095665e-005</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6282,6 +8255,15 @@
       <c r="F188">
         <v>0</v>
       </c>
+      <c r="K188">
+        <v>0.0003367521367521334</v>
+      </c>
+      <c r="L188">
+        <v>0.0002660944938055461</v>
+      </c>
+      <c r="Q188">
+        <v>0.2173472471302965</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6312,6 +8294,15 @@
       <c r="F189">
         <v>0</v>
       </c>
+      <c r="K189">
+        <v>-0.000858508547008543</v>
+      </c>
+      <c r="L189">
+        <v>0.0002499239525384268</v>
+      </c>
+      <c r="Q189">
+        <v>0.002076938400786476</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6342,6 +8333,15 @@
       <c r="F190">
         <v>0</v>
       </c>
+      <c r="K190">
+        <v>0.001422503913043512</v>
+      </c>
+      <c r="L190">
+        <v>0.0003218235643927432</v>
+      </c>
+      <c r="Q190">
+        <v>0.0002161871157370972</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6372,6 +8372,15 @@
       <c r="F191">
         <v>0</v>
       </c>
+      <c r="K191">
+        <v>-0.0002143986093738595</v>
+      </c>
+      <c r="L191">
+        <v>0.0003922321040292872</v>
+      </c>
+      <c r="Q191">
+        <v>0.5904069416433138</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6402,6 +8411,15 @@
       <c r="F192">
         <v>0</v>
       </c>
+      <c r="K192">
+        <v>0.0002800125241829039</v>
+      </c>
+      <c r="L192">
+        <v>0.0006945395186449586</v>
+      </c>
+      <c r="Q192">
+        <v>0.6907197875443445</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6432,6 +8450,15 @@
       <c r="F193">
         <v>0</v>
       </c>
+      <c r="K193">
+        <v>0.0001235301374691582</v>
+      </c>
+      <c r="L193">
+        <v>3.912236500161291e-005</v>
+      </c>
+      <c r="Q193">
+        <v>0.005184473501314166</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6462,6 +8489,15 @@
       <c r="F194">
         <v>0</v>
       </c>
+      <c r="K194">
+        <v>-1.004943974252208e-005</v>
+      </c>
+      <c r="L194">
+        <v>4.703446917957134e-005</v>
+      </c>
+      <c r="Q194">
+        <v>0.8328720791849095</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6492,6 +8528,15 @@
       <c r="F195">
         <v>0</v>
       </c>
+      <c r="K195">
+        <v>2.124999999999996e-005</v>
+      </c>
+      <c r="L195">
+        <v>8.860914795431947e-005</v>
+      </c>
+      <c r="Q195">
+        <v>0.8139476273845443</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6522,6 +8567,15 @@
       <c r="F196">
         <v>0</v>
       </c>
+      <c r="K196">
+        <v>-0.0006456345832798196</v>
+      </c>
+      <c r="L196">
+        <v>0.0003331090989903673</v>
+      </c>
+      <c r="Q196">
+        <v>0.06938773762288834</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6558,6 +8612,21 @@
       <c r="H197">
         <v>2.714151655289401</v>
       </c>
+      <c r="K197">
+        <v>0.00016484</v>
+      </c>
+      <c r="L197">
+        <v>8.794200000000001e-005</v>
+      </c>
+      <c r="M197">
+        <v>-0.0002594</v>
+      </c>
+      <c r="N197">
+        <v>0.00011312</v>
+      </c>
+      <c r="Q197">
+        <v>0.0755630410742473</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6594,6 +8663,21 @@
       <c r="H198">
         <v>2.387935707438261</v>
       </c>
+      <c r="K198">
+        <v>0.00015942</v>
+      </c>
+      <c r="L198">
+        <v>0.00023897</v>
+      </c>
+      <c r="M198">
+        <v>-0.0017066</v>
+      </c>
+      <c r="N198">
+        <v>0.00076311</v>
+      </c>
+      <c r="Q198">
+        <v>0.513652932744848</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6630,6 +8714,21 @@
       <c r="H199">
         <v>2.846391761655031</v>
       </c>
+      <c r="K199">
+        <v>0.00036856</v>
+      </c>
+      <c r="L199">
+        <v>0.00033041</v>
+      </c>
+      <c r="M199">
+        <v>-0.00070598</v>
+      </c>
+      <c r="N199">
+        <v>0.0002251</v>
+      </c>
+      <c r="Q199">
+        <v>0.2907462168960288</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6660,6 +8759,15 @@
       <c r="F200">
         <v>0</v>
       </c>
+      <c r="K200">
+        <v>-0.0003026630036630021</v>
+      </c>
+      <c r="L200">
+        <v>7.142510353074469e-005</v>
+      </c>
+      <c r="Q200">
+        <v>0.0002686893652360178</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6690,6 +8798,15 @@
       <c r="F201">
         <v>0</v>
       </c>
+      <c r="K201">
+        <v>-0.0001794809053569951</v>
+      </c>
+      <c r="L201">
+        <v>8.534303038032467e-005</v>
+      </c>
+      <c r="Q201">
+        <v>0.0490170468763063</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6720,6 +8837,15 @@
       <c r="F202">
         <v>0</v>
       </c>
+      <c r="K202">
+        <v>0.0002316817566122465</v>
+      </c>
+      <c r="L202">
+        <v>4.282739618359174e-005</v>
+      </c>
+      <c r="Q202">
+        <v>2.293431472460873e-005</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6750,6 +8876,15 @@
       <c r="F203">
         <v>0</v>
       </c>
+      <c r="K203">
+        <v>0.0001827717957624163</v>
+      </c>
+      <c r="L203">
+        <v>7.711882915773867e-005</v>
+      </c>
+      <c r="Q203">
+        <v>0.03715172510045015</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6780,6 +8915,15 @@
       <c r="F204">
         <v>0</v>
       </c>
+      <c r="K204">
+        <v>-5.021691973969658e-005</v>
+      </c>
+      <c r="L204">
+        <v>0.0001461628214042866</v>
+      </c>
+      <c r="Q204">
+        <v>0.7349435842732495</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6810,6 +8954,15 @@
       <c r="F205">
         <v>0</v>
       </c>
+      <c r="K205">
+        <v>-5.875565229602423e-005</v>
+      </c>
+      <c r="L205">
+        <v>5.795524463663353e-005</v>
+      </c>
+      <c r="Q205">
+        <v>0.3267478695824375</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6846,6 +8999,21 @@
       <c r="H206">
         <v>1.226160008646999</v>
       </c>
+      <c r="K206">
+        <v>0.00018324</v>
+      </c>
+      <c r="L206">
+        <v>4.2975e-005</v>
+      </c>
+      <c r="M206">
+        <v>-0.0007233</v>
+      </c>
+      <c r="N206">
+        <v>0.00035828</v>
+      </c>
+      <c r="Q206">
+        <v>0.0004669469249566348</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6876,6 +9044,15 @@
       <c r="F207">
         <v>0</v>
       </c>
+      <c r="K207">
+        <v>0.000138675623800384</v>
+      </c>
+      <c r="L207">
+        <v>0.0001036931107505356</v>
+      </c>
+      <c r="Q207">
+        <v>0.2139167293766129</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6906,6 +9083,15 @@
       <c r="F208">
         <v>0</v>
       </c>
+      <c r="K208">
+        <v>-0.001880382783882777</v>
+      </c>
+      <c r="L208">
+        <v>0.000523140717638797</v>
+      </c>
+      <c r="Q208">
+        <v>0.001392299782381077</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6936,6 +9122,15 @@
       <c r="F209">
         <v>0</v>
       </c>
+      <c r="K209">
+        <v>0.0001343406593406596</v>
+      </c>
+      <c r="L209">
+        <v>5.019558172409187e-005</v>
+      </c>
+      <c r="Q209">
+        <v>0.01807430344456139</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6966,6 +9161,15 @@
       <c r="F210">
         <v>0</v>
       </c>
+      <c r="K210">
+        <v>0.0001053087757313122</v>
+      </c>
+      <c r="L210">
+        <v>7.698809903121181e-005</v>
+      </c>
+      <c r="Q210">
+        <v>0.1902626762419469</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6996,6 +9200,15 @@
       <c r="F211">
         <v>0</v>
       </c>
+      <c r="K211">
+        <v>-0.0003022071823204608</v>
+      </c>
+      <c r="L211">
+        <v>0.000205460834751286</v>
+      </c>
+      <c r="Q211">
+        <v>0.1561513027211898</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7032,6 +9245,21 @@
       <c r="H212">
         <v>0.3813075637174613</v>
       </c>
+      <c r="K212">
+        <v>-0.03536</v>
+      </c>
+      <c r="L212">
+        <v>0.0054917</v>
+      </c>
+      <c r="M212">
+        <v>-0.0011658</v>
+      </c>
+      <c r="N212">
+        <v>0.00062428</v>
+      </c>
+      <c r="Q212">
+        <v>1.115939244319745e-005</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7068,6 +9296,21 @@
       <c r="H213">
         <v>0.699551487619333</v>
       </c>
+      <c r="K213">
+        <v>-0.0031654</v>
+      </c>
+      <c r="L213">
+        <v>0.00085185</v>
+      </c>
+      <c r="M213">
+        <v>0.00083811</v>
+      </c>
+      <c r="N213">
+        <v>0.00028395</v>
+      </c>
+      <c r="Q213">
+        <v>0.007496443473535784</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7098,6 +9341,15 @@
       <c r="F214">
         <v>0</v>
       </c>
+      <c r="K214">
+        <v>-0.0003607333333333729</v>
+      </c>
+      <c r="L214">
+        <v>0.0004897570266827898</v>
+      </c>
+      <c r="Q214">
+        <v>0.4824301931069603</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7128,6 +9380,15 @@
       <c r="F215">
         <v>0</v>
       </c>
+      <c r="K215">
+        <v>-0.0006084296296295716</v>
+      </c>
+      <c r="L215">
+        <v>0.0006164980782959754</v>
+      </c>
+      <c r="Q215">
+        <v>0.3494731950072026</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7158,6 +9419,15 @@
       <c r="F216">
         <v>0</v>
       </c>
+      <c r="K216">
+        <v>-5.682127830093702e-005</v>
+      </c>
+      <c r="L216">
+        <v>0.0003307662317910892</v>
+      </c>
+      <c r="Q216">
+        <v>0.8655217118108468</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7188,6 +9458,15 @@
       <c r="F217">
         <v>0</v>
       </c>
+      <c r="K217">
+        <v>-0.0005560650462643333</v>
+      </c>
+      <c r="L217">
+        <v>6.52063915366896e-005</v>
+      </c>
+      <c r="Q217">
+        <v>2.913193559992802e-008</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7218,6 +9497,15 @@
       <c r="F218">
         <v>0</v>
       </c>
+      <c r="K218">
+        <v>-0.0007969159443990422</v>
+      </c>
+      <c r="L218">
+        <v>0.0002687452544361809</v>
+      </c>
+      <c r="Q218">
+        <v>0.008672171038841747</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7254,6 +9542,21 @@
       <c r="H219">
         <v>1.933504394097364</v>
       </c>
+      <c r="K219">
+        <v>0.0044315</v>
+      </c>
+      <c r="L219">
+        <v>0.0022393</v>
+      </c>
+      <c r="M219">
+        <v>-0.007408</v>
+      </c>
+      <c r="N219">
+        <v>0.0023518</v>
+      </c>
+      <c r="Q219">
+        <v>0.06249447587280667</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7290,6 +9593,21 @@
       <c r="H220">
         <v>0.5076398584946644</v>
       </c>
+      <c r="K220">
+        <v>-0.07178</v>
+      </c>
+      <c r="L220">
+        <v>0.010327</v>
+      </c>
+      <c r="M220">
+        <v>-0.0085731</v>
+      </c>
+      <c r="N220">
+        <v>0.0014267</v>
+      </c>
+      <c r="Q220">
+        <v>2.341674225484456e-006</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7320,6 +9638,15 @@
       <c r="F221">
         <v>0</v>
       </c>
+      <c r="K221">
+        <v>-0.00522014296501391</v>
+      </c>
+      <c r="L221">
+        <v>0.000743219637459972</v>
+      </c>
+      <c r="Q221">
+        <v>1.09435185052319e-006</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7350,6 +9677,15 @@
       <c r="F222">
         <v>0</v>
       </c>
+      <c r="K222">
+        <v>-0.004474907825167228</v>
+      </c>
+      <c r="L222">
+        <v>0.001007506057475186</v>
+      </c>
+      <c r="Q222">
+        <v>0.0003151341471343232</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7380,6 +9716,15 @@
       <c r="F223">
         <v>0</v>
       </c>
+      <c r="K223">
+        <v>-0.002252863956707802</v>
+      </c>
+      <c r="L223">
+        <v>0.0007688737649993027</v>
+      </c>
+      <c r="Q223">
+        <v>0.008590891239634449</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7410,6 +9755,15 @@
       <c r="F224">
         <v>0</v>
       </c>
+      <c r="K224">
+        <v>-0.004660899823810777</v>
+      </c>
+      <c r="L224">
+        <v>0.001047859403191802</v>
+      </c>
+      <c r="Q224">
+        <v>0.0002758990278344187</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7440,6 +9794,15 @@
       <c r="F225">
         <v>0</v>
       </c>
+      <c r="K225">
+        <v>-4.793606837606844e-005</v>
+      </c>
+      <c r="L225">
+        <v>2.75366344867787e-005</v>
+      </c>
+      <c r="Q225">
+        <v>0.09452425835468042</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7470,6 +9833,15 @@
       <c r="F226">
         <v>0</v>
       </c>
+      <c r="K226">
+        <v>2.42251759186849e-005</v>
+      </c>
+      <c r="L226">
+        <v>3.990836807268024e-005</v>
+      </c>
+      <c r="Q226">
+        <v>0.554292133418269</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7500,6 +9872,15 @@
       <c r="F227">
         <v>0</v>
       </c>
+      <c r="K227">
+        <v>5.53373015873019e-005</v>
+      </c>
+      <c r="L227">
+        <v>3.678199452650474e-005</v>
+      </c>
+      <c r="Q227">
+        <v>0.1546839225059529</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7530,6 +9911,15 @@
       <c r="F228">
         <v>0</v>
       </c>
+      <c r="K228">
+        <v>-0.003164914501590606</v>
+      </c>
+      <c r="L228">
+        <v>0.0005709271625882153</v>
+      </c>
+      <c r="Q228">
+        <v>5.628491472459782e-005</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7566,6 +9956,21 @@
       <c r="H229">
         <v>0.7378275549558824</v>
       </c>
+      <c r="K229">
+        <v>0.0041</v>
+      </c>
+      <c r="L229">
+        <v>0.0015215</v>
+      </c>
+      <c r="M229">
+        <v>-0.0027857</v>
+      </c>
+      <c r="N229">
+        <v>0.00033226</v>
+      </c>
+      <c r="Q229">
+        <v>0.01743534271299688</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7596,6 +10001,15 @@
       <c r="F230">
         <v>0</v>
       </c>
+      <c r="K230">
+        <v>-0.001844483193277287</v>
+      </c>
+      <c r="L230">
+        <v>0.000303663109122215</v>
+      </c>
+      <c r="Q230">
+        <v>2.128661768676127e-005</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7626,6 +10040,15 @@
       <c r="F231">
         <v>0</v>
       </c>
+      <c r="K231">
+        <v>0.0003171400914796316</v>
+      </c>
+      <c r="L231">
+        <v>0.0002904552317080091</v>
+      </c>
+      <c r="Q231">
+        <v>0.2910583060784308</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7656,6 +10079,15 @@
       <c r="F232">
         <v>0</v>
       </c>
+      <c r="K232">
+        <v>-0.002306878223963435</v>
+      </c>
+      <c r="L232">
+        <v>0.001021486932766003</v>
+      </c>
+      <c r="Q232">
+        <v>0.04522253868374551</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7686,6 +10118,15 @@
       <c r="F233">
         <v>0</v>
       </c>
+      <c r="K233">
+        <v>0.0003378018295925889</v>
+      </c>
+      <c r="L233">
+        <v>0.001006646201590663</v>
+      </c>
+      <c r="Q233">
+        <v>0.741553838405148</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7716,6 +10157,15 @@
       <c r="F234">
         <v>0</v>
       </c>
+      <c r="K234">
+        <v>0.001031348131918818</v>
+      </c>
+      <c r="L234">
+        <v>0.00183318633876558</v>
+      </c>
+      <c r="Q234">
+        <v>0.5820196727742746</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7746,6 +10196,15 @@
       <c r="F235">
         <v>0</v>
       </c>
+      <c r="K235">
+        <v>-5.515717299577526e-005</v>
+      </c>
+      <c r="L235">
+        <v>0.000350401922277448</v>
+      </c>
+      <c r="Q235">
+        <v>0.8770201654556512</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7776,6 +10235,15 @@
       <c r="F236">
         <v>0</v>
       </c>
+      <c r="K236">
+        <v>-0.001036093819806405</v>
+      </c>
+      <c r="L236">
+        <v>0.0002638285155076256</v>
+      </c>
+      <c r="Q236">
+        <v>0.00120298295722992</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7806,6 +10274,15 @@
       <c r="F237">
         <v>0</v>
       </c>
+      <c r="K237">
+        <v>0.003809848484848514</v>
+      </c>
+      <c r="L237">
+        <v>0.002410685565333968</v>
+      </c>
+      <c r="Q237">
+        <v>0.1484730294184378</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7836,6 +10313,15 @@
       <c r="F238">
         <v>0</v>
       </c>
+      <c r="K238">
+        <v>-0.009043107046801221</v>
+      </c>
+      <c r="L238">
+        <v>0.003520588246651089</v>
+      </c>
+      <c r="Q238">
+        <v>0.02795603384035644</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7866,6 +10352,15 @@
       <c r="F239">
         <v>0</v>
       </c>
+      <c r="K239">
+        <v>0.001237928571428568</v>
+      </c>
+      <c r="L239">
+        <v>0.003021902580704816</v>
+      </c>
+      <c r="Q239">
+        <v>0.6928106926793605</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7896,6 +10391,15 @@
       <c r="F240">
         <v>0</v>
       </c>
+      <c r="K240">
+        <v>0.01099367461263367</v>
+      </c>
+      <c r="L240">
+        <v>0.003167667496322463</v>
+      </c>
+      <c r="Q240">
+        <v>0.007042215551169856</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7926,6 +10430,15 @@
       <c r="F241">
         <v>0</v>
       </c>
+      <c r="K241">
+        <v>0.001278944117647061</v>
+      </c>
+      <c r="L241">
+        <v>0.001214820284711565</v>
+      </c>
+      <c r="Q241">
+        <v>0.3102719793697931</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7956,6 +10469,15 @@
       <c r="F242">
         <v>0</v>
       </c>
+      <c r="K242">
+        <v>-0.000211457345971575</v>
+      </c>
+      <c r="L242">
+        <v>0.0008914792019270547</v>
+      </c>
+      <c r="Q242">
+        <v>0.8161999758173931</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7986,6 +10508,15 @@
       <c r="F243">
         <v>0</v>
       </c>
+      <c r="K243">
+        <v>-0.0009156088235294127</v>
+      </c>
+      <c r="L243">
+        <v>0.000876653752204907</v>
+      </c>
+      <c r="Q243">
+        <v>0.3139832661172006</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -8016,6 +10547,15 @@
       <c r="F244">
         <v>0</v>
       </c>
+      <c r="K244">
+        <v>-0.0004008338056416569</v>
+      </c>
+      <c r="L244">
+        <v>0.0003780535493212276</v>
+      </c>
+      <c r="Q244">
+        <v>0.3016648236817154</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8046,6 +10586,15 @@
       <c r="F245">
         <v>0</v>
       </c>
+      <c r="K245">
+        <v>0.0003198476697038917</v>
+      </c>
+      <c r="L245">
+        <v>0.0007639097651393591</v>
+      </c>
+      <c r="Q245">
+        <v>0.6798988043469327</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8076,6 +10625,15 @@
       <c r="F246">
         <v>0</v>
       </c>
+      <c r="K246">
+        <v>0.000236633387103761</v>
+      </c>
+      <c r="L246">
+        <v>0.0002144768825584828</v>
+      </c>
+      <c r="Q246">
+        <v>0.2829937404829354</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -8112,6 +10670,21 @@
       <c r="H247">
         <v>1.793493945329215</v>
       </c>
+      <c r="K247">
+        <v>-0.0016714</v>
+      </c>
+      <c r="L247">
+        <v>0.00077078</v>
+      </c>
+      <c r="M247">
+        <v>-3.7111e-006</v>
+      </c>
+      <c r="N247">
+        <v>0.00012164</v>
+      </c>
+      <c r="Q247">
+        <v>0.04175408050726777</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8142,6 +10715,15 @@
       <c r="F248">
         <v>0</v>
       </c>
+      <c r="K248">
+        <v>-0.0001567531590884554</v>
+      </c>
+      <c r="L248">
+        <v>4.853492930960017e-005</v>
+      </c>
+      <c r="Q248">
+        <v>0.003705829090149536</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8172,6 +10754,15 @@
       <c r="F249">
         <v>0</v>
       </c>
+      <c r="K249">
+        <v>-2.950494213057309e-006</v>
+      </c>
+      <c r="L249">
+        <v>7.137592641244369e-005</v>
+      </c>
+      <c r="Q249">
+        <v>0.9673997964338073</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -8202,6 +10793,15 @@
       <c r="F250">
         <v>0</v>
       </c>
+      <c r="K250">
+        <v>-9.783694243439099e-005</v>
+      </c>
+      <c r="L250">
+        <v>5.146940492857868e-005</v>
+      </c>
+      <c r="Q250">
+        <v>0.06992203968111539</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -8232,6 +10832,15 @@
       <c r="F251">
         <v>0</v>
       </c>
+      <c r="K251">
+        <v>-3.249146776109917e-005</v>
+      </c>
+      <c r="L251">
+        <v>6.729165998588176e-005</v>
+      </c>
+      <c r="Q251">
+        <v>0.6337696337591405</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8262,6 +10871,15 @@
       <c r="F252">
         <v>0</v>
       </c>
+      <c r="K252">
+        <v>-0.0001329996759909283</v>
+      </c>
+      <c r="L252">
+        <v>6.261307341731952e-005</v>
+      </c>
+      <c r="Q252">
+        <v>0.04462574040194244</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8292,6 +10910,15 @@
       <c r="F253">
         <v>0</v>
       </c>
+      <c r="K253">
+        <v>-0.0002115241926773981</v>
+      </c>
+      <c r="L253">
+        <v>8.365476251172886e-005</v>
+      </c>
+      <c r="Q253">
+        <v>0.01877181102543262</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8328,6 +10955,21 @@
       <c r="H254">
         <v>1.739332255497855</v>
       </c>
+      <c r="K254">
+        <v>0.0013357</v>
+      </c>
+      <c r="L254">
+        <v>0.00068352</v>
+      </c>
+      <c r="M254">
+        <v>-0.00063839</v>
+      </c>
+      <c r="N254">
+        <v>0.00014657</v>
+      </c>
+      <c r="Q254">
+        <v>0.06413341887499954</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8358,6 +11000,15 @@
       <c r="F255">
         <v>0</v>
       </c>
+      <c r="K255">
+        <v>-0.0001199693811426739</v>
+      </c>
+      <c r="L255">
+        <v>7.102831921410723e-005</v>
+      </c>
+      <c r="Q255">
+        <v>0.1047257415794199</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8388,6 +11039,15 @@
       <c r="F256">
         <v>0</v>
       </c>
+      <c r="K256">
+        <v>0.000107477076358139</v>
+      </c>
+      <c r="L256">
+        <v>6.947477627355937e-005</v>
+      </c>
+      <c r="Q256">
+        <v>0.1355150293733817</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8424,6 +11084,21 @@
       <c r="H257">
         <v>3.06177356185237</v>
       </c>
+      <c r="K257">
+        <v>0.00015451</v>
+      </c>
+      <c r="L257">
+        <v>0.00011767</v>
+      </c>
+      <c r="M257">
+        <v>-0.00076048</v>
+      </c>
+      <c r="N257">
+        <v>0.00044906</v>
+      </c>
+      <c r="Q257">
+        <v>0.2033278945173814</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8460,6 +11135,21 @@
       <c r="H258">
         <v>1.59461523984544</v>
       </c>
+      <c r="K258">
+        <v>-0.00042904</v>
+      </c>
+      <c r="L258">
+        <v>0.00012051</v>
+      </c>
+      <c r="M258">
+        <v>6.2788e-005</v>
+      </c>
+      <c r="N258">
+        <v>5.1326e-005</v>
+      </c>
+      <c r="Q258">
+        <v>0.001961400840564021</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8490,6 +11180,15 @@
       <c r="F259">
         <v>0</v>
       </c>
+      <c r="K259">
+        <v>-2.670768981531646e-005</v>
+      </c>
+      <c r="L259">
+        <v>5.104660591961966e-005</v>
+      </c>
+      <c r="Q259">
+        <v>0.6058381934282451</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8520,6 +11219,15 @@
       <c r="F260">
         <v>0</v>
       </c>
+      <c r="K260">
+        <v>-0.000136553623501459</v>
+      </c>
+      <c r="L260">
+        <v>4.472880289826986e-005</v>
+      </c>
+      <c r="Q260">
+        <v>0.005641919244538798</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8550,6 +11258,15 @@
       <c r="F261">
         <v>0</v>
       </c>
+      <c r="K261">
+        <v>0.0001385955556755602</v>
+      </c>
+      <c r="L261">
+        <v>9.46314482916568e-005</v>
+      </c>
+      <c r="Q261">
+        <v>0.1565709143967874</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8580,6 +11297,15 @@
       <c r="F262">
         <v>0</v>
       </c>
+      <c r="K262">
+        <v>-0.0001648944000432044</v>
+      </c>
+      <c r="L262">
+        <v>7.332355545245719e-005</v>
+      </c>
+      <c r="Q262">
+        <v>0.03439858920544857</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8610,6 +11336,15 @@
       <c r="F263">
         <v>0</v>
       </c>
+      <c r="K263">
+        <v>-0.002121821338087642</v>
+      </c>
+      <c r="L263">
+        <v>0.0004854594201919568</v>
+      </c>
+      <c r="Q263">
+        <v>0.0003288915600051147</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -8646,6 +11381,21 @@
       <c r="H264">
         <v>1.234345332171689</v>
       </c>
+      <c r="K264">
+        <v>-0.0015047</v>
+      </c>
+      <c r="L264">
+        <v>0.00051227</v>
+      </c>
+      <c r="M264">
+        <v>-2.4723e-005</v>
+      </c>
+      <c r="N264">
+        <v>5.7068e-005</v>
+      </c>
+      <c r="Q264">
+        <v>0.007869928614306567</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8676,6 +11426,15 @@
       <c r="F265">
         <v>0</v>
       </c>
+      <c r="K265">
+        <v>-8.037538382070465e-005</v>
+      </c>
+      <c r="L265">
+        <v>4.266363067766455e-005</v>
+      </c>
+      <c r="Q265">
+        <v>0.07285857390132704</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8706,6 +11465,15 @@
       <c r="F266">
         <v>0</v>
       </c>
+      <c r="K266">
+        <v>-0.0001553481747488938</v>
+      </c>
+      <c r="L266">
+        <v>4.922697582751172e-005</v>
+      </c>
+      <c r="Q266">
+        <v>0.004421522498938621</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8742,6 +11510,21 @@
       <c r="H267">
         <v>3.291332239359242</v>
       </c>
+      <c r="K267">
+        <v>-0.00035423</v>
+      </c>
+      <c r="L267">
+        <v>0.000175</v>
+      </c>
+      <c r="M267">
+        <v>0.000128</v>
+      </c>
+      <c r="N267">
+        <v>0.00017589</v>
+      </c>
+      <c r="Q267">
+        <v>0.05998409160089872</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -8772,6 +11555,15 @@
       <c r="F268">
         <v>0</v>
       </c>
+      <c r="K268">
+        <v>-0.0001161754779133821</v>
+      </c>
+      <c r="L268">
+        <v>5.427537815393199e-005</v>
+      </c>
+      <c r="Q268">
+        <v>0.04314624546041024</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -8802,6 +11594,15 @@
       <c r="F269">
         <v>0</v>
       </c>
+      <c r="K269">
+        <v>-0.0002625688249271015</v>
+      </c>
+      <c r="L269">
+        <v>6.443979082181389e-005</v>
+      </c>
+      <c r="Q269">
+        <v>0.0004673030556078967</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -8832,6 +11633,15 @@
       <c r="F270">
         <v>0</v>
       </c>
+      <c r="K270">
+        <v>-0.0001072710031826275</v>
+      </c>
+      <c r="L270">
+        <v>3.056934220625584e-005</v>
+      </c>
+      <c r="Q270">
+        <v>0.002208079234765967</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -8868,6 +11678,21 @@
       <c r="H271">
         <v>1.299378971456288</v>
       </c>
+      <c r="K271">
+        <v>-0.00059501</v>
+      </c>
+      <c r="L271">
+        <v>0.00019038</v>
+      </c>
+      <c r="M271">
+        <v>2.5525e-005</v>
+      </c>
+      <c r="N271">
+        <v>4.0067e-005</v>
+      </c>
+      <c r="Q271">
+        <v>0.005114613324870209</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -8898,6 +11723,15 @@
       <c r="F272">
         <v>0</v>
       </c>
+      <c r="K272">
+        <v>-0.0001542388216870078</v>
+      </c>
+      <c r="L272">
+        <v>5.192361738744778e-005</v>
+      </c>
+      <c r="Q272">
+        <v>0.006847979918644285</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8928,6 +11762,15 @@
       <c r="F273">
         <v>0</v>
       </c>
+      <c r="K273">
+        <v>-5.692569391942937e-005</v>
+      </c>
+      <c r="L273">
+        <v>3.872529121353965e-005</v>
+      </c>
+      <c r="Q273">
+        <v>0.1551131228251482</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8958,6 +11801,15 @@
       <c r="F274">
         <v>0</v>
       </c>
+      <c r="K274">
+        <v>8.962693055405188e-005</v>
+      </c>
+      <c r="L274">
+        <v>0.0001116632254474183</v>
+      </c>
+      <c r="Q274">
+        <v>0.4303912440933783</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8988,6 +11840,15 @@
       <c r="F275">
         <v>0</v>
       </c>
+      <c r="K275">
+        <v>2.710371819961143e-005</v>
+      </c>
+      <c r="L275">
+        <v>5.752025600175721e-005</v>
+      </c>
+      <c r="Q275">
+        <v>0.6421348463692697</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -9018,6 +11879,15 @@
       <c r="F276">
         <v>0</v>
       </c>
+      <c r="K276">
+        <v>0.003332156559270898</v>
+      </c>
+      <c r="L276">
+        <v>0.001280909739335041</v>
+      </c>
+      <c r="Q276">
+        <v>0.01707521872189792</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -9048,6 +11918,15 @@
       <c r="F277">
         <v>0</v>
       </c>
+      <c r="K277">
+        <v>-0.0001405834863376217</v>
+      </c>
+      <c r="L277">
+        <v>7.144935706652966e-005</v>
+      </c>
+      <c r="Q277">
+        <v>0.06128786395794439</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -9078,6 +11957,15 @@
       <c r="F278">
         <v>0</v>
       </c>
+      <c r="K278">
+        <v>-0.0001548753645102087</v>
+      </c>
+      <c r="L278">
+        <v>3.97812610571386e-005</v>
+      </c>
+      <c r="Q278">
+        <v>0.0007331921149893898</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -9108,6 +11996,15 @@
       <c r="F279">
         <v>0</v>
       </c>
+      <c r="K279">
+        <v>-0.0001197891510962325</v>
+      </c>
+      <c r="L279">
+        <v>6.510048974820491e-005</v>
+      </c>
+      <c r="Q279">
+        <v>0.0787000001209921</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9138,6 +12035,15 @@
       <c r="F280">
         <v>0</v>
       </c>
+      <c r="K280">
+        <v>0.0005701046344334639</v>
+      </c>
+      <c r="L280">
+        <v>0.0003179742056778556</v>
+      </c>
+      <c r="Q280">
+        <v>0.08812329903755796</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9174,6 +12080,21 @@
       <c r="H281">
         <v>1.69312788016975</v>
       </c>
+      <c r="K281">
+        <v>-0.00084523</v>
+      </c>
+      <c r="L281">
+        <v>0.00040488</v>
+      </c>
+      <c r="M281">
+        <v>0.00011207</v>
+      </c>
+      <c r="N281">
+        <v>6.3897e-005</v>
+      </c>
+      <c r="Q281">
+        <v>0.04920279821615797</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -9204,6 +12125,15 @@
       <c r="F282">
         <v>0</v>
       </c>
+      <c r="K282">
+        <v>-0.0001328437196241504</v>
+      </c>
+      <c r="L282">
+        <v>4.517106313001001e-005</v>
+      </c>
+      <c r="Q282">
+        <v>0.007338371483530217</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -9234,6 +12164,15 @@
       <c r="F283">
         <v>0</v>
       </c>
+      <c r="K283">
+        <v>-0.0002357852359866108</v>
+      </c>
+      <c r="L283">
+        <v>5.360129194790466e-005</v>
+      </c>
+      <c r="Q283">
+        <v>0.0002083165668303977</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9270,6 +12209,21 @@
       <c r="H284">
         <v>1.971936295420611</v>
       </c>
+      <c r="K284">
+        <v>-0.00053833</v>
+      </c>
+      <c r="L284">
+        <v>0.00027569</v>
+      </c>
+      <c r="M284">
+        <v>-4.0355e-005</v>
+      </c>
+      <c r="N284">
+        <v>3.0712e-005</v>
+      </c>
+      <c r="Q284">
+        <v>0.06431769313065314</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -9300,6 +12254,15 @@
       <c r="F285">
         <v>0</v>
       </c>
+      <c r="K285">
+        <v>-0.0001441154929577488</v>
+      </c>
+      <c r="L285">
+        <v>4.062650214596579e-005</v>
+      </c>
+      <c r="Q285">
+        <v>0.001806618623063657</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9330,6 +12293,15 @@
       <c r="F286">
         <v>0</v>
       </c>
+      <c r="K286">
+        <v>-0.000277142050977431</v>
+      </c>
+      <c r="L286">
+        <v>4.360589065369571e-005</v>
+      </c>
+      <c r="Q286">
+        <v>1.74234784183115e-006</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9360,6 +12332,15 @@
       <c r="F287">
         <v>0</v>
       </c>
+      <c r="K287">
+        <v>-8.19023652662284e-005</v>
+      </c>
+      <c r="L287">
+        <v>4.074295801645422e-005</v>
+      </c>
+      <c r="Q287">
+        <v>0.05627732355959923</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9390,6 +12371,15 @@
       <c r="F288">
         <v>0</v>
       </c>
+      <c r="K288">
+        <v>-0.0001301849821795012</v>
+      </c>
+      <c r="L288">
+        <v>8.11092094432851e-005</v>
+      </c>
+      <c r="Q288">
+        <v>0.1221254771773389</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9420,6 +12410,15 @@
       <c r="F289">
         <v>0</v>
       </c>
+      <c r="K289">
+        <v>-0.0001383775679469217</v>
+      </c>
+      <c r="L289">
+        <v>0.0001255195576740859</v>
+      </c>
+      <c r="Q289">
+        <v>0.282745787617402</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -9450,6 +12449,15 @@
       <c r="F290">
         <v>0</v>
       </c>
+      <c r="K290">
+        <v>-0.0001061957446808582</v>
+      </c>
+      <c r="L290">
+        <v>7.97441931219895e-005</v>
+      </c>
+      <c r="Q290">
+        <v>0.2076999137195253</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -9480,6 +12488,15 @@
       <c r="F291">
         <v>0</v>
       </c>
+      <c r="K291">
+        <v>-3.848941570364081e-005</v>
+      </c>
+      <c r="L291">
+        <v>5.938237241236549e-005</v>
+      </c>
+      <c r="Q291">
+        <v>0.5232986589241326</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -9510,6 +12527,15 @@
       <c r="F292">
         <v>0</v>
       </c>
+      <c r="K292">
+        <v>0.0004413491737768748</v>
+      </c>
+      <c r="L292">
+        <v>0.0001863923283562578</v>
+      </c>
+      <c r="Q292">
+        <v>0.02667839881089786</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -9540,6 +12566,15 @@
       <c r="F293">
         <v>0</v>
       </c>
+      <c r="K293">
+        <v>-1.733579746835919e-005</v>
+      </c>
+      <c r="L293">
+        <v>0.0002717274828528127</v>
+      </c>
+      <c r="Q293">
+        <v>0.9497640457038342</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -9576,6 +12611,21 @@
       <c r="H294">
         <v>1.766641128978806</v>
       </c>
+      <c r="K294">
+        <v>-0.0013167</v>
+      </c>
+      <c r="L294">
+        <v>0.00074999</v>
+      </c>
+      <c r="M294">
+        <v>0.00013663</v>
+      </c>
+      <c r="N294">
+        <v>8.3549e-005</v>
+      </c>
+      <c r="Q294">
+        <v>0.09373013135130393</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -9612,6 +12662,21 @@
       <c r="H295">
         <v>2.674944629427821</v>
       </c>
+      <c r="K295">
+        <v>-0.00059178</v>
+      </c>
+      <c r="L295">
+        <v>0.0001541</v>
+      </c>
+      <c r="M295">
+        <v>-6.205e-005</v>
+      </c>
+      <c r="N295">
+        <v>0.00011318</v>
+      </c>
+      <c r="Q295">
+        <v>0.000951052384393839</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -9648,6 +12713,21 @@
       <c r="H296">
         <v>1.673151565139129</v>
       </c>
+      <c r="K296">
+        <v>-0.00062793</v>
+      </c>
+      <c r="L296">
+        <v>0.00023422</v>
+      </c>
+      <c r="M296">
+        <v>-4.516e-007</v>
+      </c>
+      <c r="N296">
+        <v>5.0224e-005</v>
+      </c>
+      <c r="Q296">
+        <v>0.01398689637062122</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -9678,6 +12758,15 @@
       <c r="F297">
         <v>0</v>
       </c>
+      <c r="K297">
+        <v>-0.0001118517658494447</v>
+      </c>
+      <c r="L297">
+        <v>3.005110209475718e-005</v>
+      </c>
+      <c r="Q297">
+        <v>0.00111888304999374</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -9708,6 +12797,15 @@
       <c r="F298">
         <v>0</v>
       </c>
+      <c r="K298">
+        <v>-0.0007351668981547273</v>
+      </c>
+      <c r="L298">
+        <v>0.0002642881627319992</v>
+      </c>
+      <c r="Q298">
+        <v>0.01087820094262656</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -9738,6 +12836,15 @@
       <c r="F299">
         <v>0</v>
       </c>
+      <c r="K299">
+        <v>-8.897578032185033e-005</v>
+      </c>
+      <c r="L299">
+        <v>3.543001733711536e-005</v>
+      </c>
+      <c r="Q299">
+        <v>0.01950106217360645</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -9768,6 +12875,15 @@
       <c r="F300">
         <v>0</v>
       </c>
+      <c r="K300">
+        <v>9.822557439943249e-005</v>
+      </c>
+      <c r="L300">
+        <v>9.774418393683181e-005</v>
+      </c>
+      <c r="Q300">
+        <v>0.3269372503301019</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -9798,6 +12914,15 @@
       <c r="F301">
         <v>0</v>
       </c>
+      <c r="K301">
+        <v>-0.0001758106976995369</v>
+      </c>
+      <c r="L301">
+        <v>6.825208637145534e-005</v>
+      </c>
+      <c r="Q301">
+        <v>0.01689568899913159</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -9828,6 +12953,15 @@
       <c r="F302">
         <v>0</v>
       </c>
+      <c r="K302">
+        <v>-0.0001080876984555581</v>
+      </c>
+      <c r="L302">
+        <v>4.319998087494181e-005</v>
+      </c>
+      <c r="Q302">
+        <v>0.01990473312325766</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -9858,6 +12992,15 @@
       <c r="F303">
         <v>0</v>
       </c>
+      <c r="K303">
+        <v>-8.228480397449461e-006</v>
+      </c>
+      <c r="L303">
+        <v>6.073168703966271e-005</v>
+      </c>
+      <c r="Q303">
+        <v>0.8934040190943127</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -9888,6 +13031,15 @@
       <c r="F304">
         <v>0</v>
       </c>
+      <c r="K304">
+        <v>-1.48905389350909e-005</v>
+      </c>
+      <c r="L304">
+        <v>4.3487142437304e-005</v>
+      </c>
+      <c r="Q304">
+        <v>0.7351499296196974</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -9924,6 +13076,21 @@
       <c r="H305">
         <v>1.485789033053975</v>
       </c>
+      <c r="K305">
+        <v>-0.0008095100000000001</v>
+      </c>
+      <c r="L305">
+        <v>0.00029791</v>
+      </c>
+      <c r="M305">
+        <v>-4.682e-005</v>
+      </c>
+      <c r="N305">
+        <v>4.7016e-005</v>
+      </c>
+      <c r="Q305">
+        <v>0.01290527049120904</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -9954,6 +13121,15 @@
       <c r="F306">
         <v>0</v>
       </c>
+      <c r="K306">
+        <v>-2.187061237714903e-006</v>
+      </c>
+      <c r="L306">
+        <v>6.045918347136654e-005</v>
+      </c>
+      <c r="Q306">
+        <v>0.9714556081832074</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -9984,6 +13160,15 @@
       <c r="F307">
         <v>0</v>
       </c>
+      <c r="K307">
+        <v>1.434820174964769e-005</v>
+      </c>
+      <c r="L307">
+        <v>8.366908504005238e-005</v>
+      </c>
+      <c r="Q307">
+        <v>0.8653403050528442</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -10020,6 +13205,21 @@
       <c r="H308">
         <v>1.40531990172573</v>
       </c>
+      <c r="K308">
+        <v>-0.000906</v>
+      </c>
+      <c r="L308">
+        <v>0.00029293</v>
+      </c>
+      <c r="M308">
+        <v>-6.320700000000001e-005</v>
+      </c>
+      <c r="N308">
+        <v>4.623e-005</v>
+      </c>
+      <c r="Q308">
+        <v>0.005513013630182402</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -10056,6 +13256,21 @@
       <c r="H309">
         <v>1.799294995929131</v>
       </c>
+      <c r="K309">
+        <v>-0.001197</v>
+      </c>
+      <c r="L309">
+        <v>0.0005022</v>
+      </c>
+      <c r="M309">
+        <v>-3.0759e-006</v>
+      </c>
+      <c r="N309">
+        <v>7.9256e-005</v>
+      </c>
+      <c r="Q309">
+        <v>0.02666558924708211</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -10086,6 +13301,15 @@
       <c r="F310">
         <v>0</v>
       </c>
+      <c r="K310">
+        <v>-0.0002894897397127131</v>
+      </c>
+      <c r="L310">
+        <v>5.73859804719864e-005</v>
+      </c>
+      <c r="Q310">
+        <v>4.176266797484552e-005</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -10122,6 +13346,21 @@
       <c r="H311">
         <v>1.128533670113926</v>
       </c>
+      <c r="K311">
+        <v>-0.001146</v>
+      </c>
+      <c r="L311">
+        <v>0.00028852</v>
+      </c>
+      <c r="M311">
+        <v>-1.1185e-005</v>
+      </c>
+      <c r="N311">
+        <v>6.0565e-005</v>
+      </c>
+      <c r="Q311">
+        <v>0.0007512825705922705</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -10152,6 +13391,15 @@
       <c r="F312">
         <v>0</v>
       </c>
+      <c r="K312">
+        <v>-0.0001631945944486462</v>
+      </c>
+      <c r="L312">
+        <v>6.54164334750014e-005</v>
+      </c>
+      <c r="Q312">
+        <v>0.0202289817047428</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -10182,6 +13430,15 @@
       <c r="F313">
         <v>0</v>
       </c>
+      <c r="K313">
+        <v>-0.0001053225715014632</v>
+      </c>
+      <c r="L313">
+        <v>9.308870955555708e-005</v>
+      </c>
+      <c r="Q313">
+        <v>0.2700606067399921</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -10212,6 +13469,15 @@
       <c r="F314">
         <v>0</v>
       </c>
+      <c r="K314">
+        <v>-0.0001101867102278868</v>
+      </c>
+      <c r="L314">
+        <v>5.057402872325814e-005</v>
+      </c>
+      <c r="Q314">
+        <v>0.03985331046738679</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -10248,6 +13514,21 @@
       <c r="H315">
         <v>1.914521577001157</v>
       </c>
+      <c r="K315">
+        <v>-0.00074702</v>
+      </c>
+      <c r="L315">
+        <v>0.00025363</v>
+      </c>
+      <c r="M315">
+        <v>-3.1382e-005</v>
+      </c>
+      <c r="N315">
+        <v>7.1791e-005</v>
+      </c>
+      <c r="Q315">
+        <v>0.007728162023794028</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -10278,6 +13559,15 @@
       <c r="F316">
         <v>0</v>
       </c>
+      <c r="K316">
+        <v>-0.0001867308564639842</v>
+      </c>
+      <c r="L316">
+        <v>5.429049530260926e-005</v>
+      </c>
+      <c r="Q316">
+        <v>0.002233982056239502</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -10308,6 +13598,15 @@
       <c r="F317">
         <v>0</v>
       </c>
+      <c r="K317">
+        <v>0.0004570603127326853</v>
+      </c>
+      <c r="L317">
+        <v>8.55377431372048e-005</v>
+      </c>
+      <c r="Q317">
+        <v>4.442517547419538e-005</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -10344,6 +13643,21 @@
       <c r="H318">
         <v>1.174849954149464</v>
       </c>
+      <c r="K318">
+        <v>-0.00056434</v>
+      </c>
+      <c r="L318">
+        <v>0.00012471</v>
+      </c>
+      <c r="M318">
+        <v>-9.964e-005</v>
+      </c>
+      <c r="N318">
+        <v>2.6743e-005</v>
+      </c>
+      <c r="Q318">
+        <v>0.0001851973361804759</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -10374,6 +13688,15 @@
       <c r="F319">
         <v>0</v>
       </c>
+      <c r="K319">
+        <v>-0.0001881743438816309</v>
+      </c>
+      <c r="L319">
+        <v>4.387824008411986e-005</v>
+      </c>
+      <c r="Q319">
+        <v>0.0002742905424026814</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -10404,6 +13727,15 @@
       <c r="F320">
         <v>0</v>
       </c>
+      <c r="K320">
+        <v>-0.0001343862998163951</v>
+      </c>
+      <c r="L320">
+        <v>4.906475817438499e-005</v>
+      </c>
+      <c r="Q320">
+        <v>0.01169517625709157</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -10434,6 +13766,15 @@
       <c r="F321">
         <v>0</v>
       </c>
+      <c r="K321">
+        <v>9.045282967923254e-005</v>
+      </c>
+      <c r="L321">
+        <v>0.0001605819408950793</v>
+      </c>
+      <c r="Q321">
+        <v>0.5786939061590505</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -10464,6 +13805,15 @@
       <c r="F322">
         <v>0</v>
       </c>
+      <c r="K322">
+        <v>-8.019224538289101e-006</v>
+      </c>
+      <c r="L322">
+        <v>5.21772552715685e-005</v>
+      </c>
+      <c r="Q322">
+        <v>0.8791931736595143</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -10494,6 +13844,15 @@
       <c r="F323">
         <v>0</v>
       </c>
+      <c r="K323">
+        <v>5.979272463467789e-005</v>
+      </c>
+      <c r="L323">
+        <v>9.240033937468964e-005</v>
+      </c>
+      <c r="Q323">
+        <v>0.5253056412864914</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -10524,6 +13883,15 @@
       <c r="F324">
         <v>0</v>
       </c>
+      <c r="K324">
+        <v>-0.000156644286523961</v>
+      </c>
+      <c r="L324">
+        <v>3.17214536688689e-005</v>
+      </c>
+      <c r="Q324">
+        <v>7.924763328745118e-005</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -10554,6 +13922,15 @@
       <c r="F325">
         <v>0</v>
       </c>
+      <c r="K325">
+        <v>-6.867110278236521e-005</v>
+      </c>
+      <c r="L325">
+        <v>5.266484151101155e-005</v>
+      </c>
+      <c r="Q325">
+        <v>0.206371389454555</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -10584,6 +13961,15 @@
       <c r="F326">
         <v>0</v>
       </c>
+      <c r="K326">
+        <v>-0.0001157397937142258</v>
+      </c>
+      <c r="L326">
+        <v>4.062964929780269e-005</v>
+      </c>
+      <c r="Q326">
+        <v>0.009091551917323254</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -10614,6 +14000,15 @@
       <c r="F327">
         <v>0</v>
       </c>
+      <c r="K327">
+        <v>-0.0001085673398855173</v>
+      </c>
+      <c r="L327">
+        <v>4.097598670522981e-005</v>
+      </c>
+      <c r="Q327">
+        <v>0.01432393935006309</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -10650,6 +14045,21 @@
       <c r="H328">
         <v>2.298235289015712</v>
       </c>
+      <c r="K328">
+        <v>-0.00054429</v>
+      </c>
+      <c r="L328">
+        <v>0.00013231</v>
+      </c>
+      <c r="M328">
+        <v>-7.896199999999999e-005</v>
+      </c>
+      <c r="N328">
+        <v>7.7705e-005</v>
+      </c>
+      <c r="Q328">
+        <v>0.0004950759919484869</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -10680,6 +14090,15 @@
       <c r="F329">
         <v>0</v>
       </c>
+      <c r="K329">
+        <v>-0.0002328229020412588</v>
+      </c>
+      <c r="L329">
+        <v>4.074804459368893e-005</v>
+      </c>
+      <c r="Q329">
+        <v>8.090041141831612e-006</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -10710,6 +14129,15 @@
       <c r="F330">
         <v>0</v>
       </c>
+      <c r="K330">
+        <v>-2.062288044065386e-005</v>
+      </c>
+      <c r="L330">
+        <v>0.0001383856948531225</v>
+      </c>
+      <c r="Q330">
+        <v>0.8828331466305683</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -10740,6 +14168,15 @@
       <c r="F331">
         <v>0</v>
       </c>
+      <c r="K331">
+        <v>-0.0002338136177096148</v>
+      </c>
+      <c r="L331">
+        <v>5.024254294093235e-005</v>
+      </c>
+      <c r="Q331">
+        <v>0.0001222422590321809</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -10770,6 +14207,15 @@
       <c r="F332">
         <v>0</v>
       </c>
+      <c r="K332">
+        <v>-0.0002585605896965144</v>
+      </c>
+      <c r="L332">
+        <v>4.750264365308489e-005</v>
+      </c>
+      <c r="Q332">
+        <v>1.564736204902668e-005</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -10800,6 +14246,15 @@
       <c r="F333">
         <v>0</v>
       </c>
+      <c r="K333">
+        <v>-0.0002464693472325682</v>
+      </c>
+      <c r="L333">
+        <v>7.199683790773329e-005</v>
+      </c>
+      <c r="Q333">
+        <v>0.003030705225560207</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -10836,6 +14291,21 @@
       <c r="H334">
         <v>0.8618141339514805</v>
       </c>
+      <c r="K334">
+        <v>-0.0022739</v>
+      </c>
+      <c r="L334">
+        <v>0.00064025</v>
+      </c>
+      <c r="M334">
+        <v>0.00040464</v>
+      </c>
+      <c r="N334">
+        <v>0.00010104</v>
+      </c>
+      <c r="Q334">
+        <v>0.001888053719066799</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -10872,6 +14342,21 @@
       <c r="H335">
         <v>1.853061795498347</v>
       </c>
+      <c r="K335">
+        <v>-0.0007885700000000001</v>
+      </c>
+      <c r="L335">
+        <v>0.00035775</v>
+      </c>
+      <c r="M335">
+        <v>-1.0264e-005</v>
+      </c>
+      <c r="N335">
+        <v>5.6459e-005</v>
+      </c>
+      <c r="Q335">
+        <v>0.03879911161231798</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -10908,6 +14393,21 @@
       <c r="H336">
         <v>1.444741962420478</v>
       </c>
+      <c r="K336">
+        <v>-0.0011978</v>
+      </c>
+      <c r="L336">
+        <v>0.00036464</v>
+      </c>
+      <c r="M336">
+        <v>-9.4736e-005</v>
+      </c>
+      <c r="N336">
+        <v>7.819e-005</v>
+      </c>
+      <c r="Q336">
+        <v>0.003530893351270222</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -10944,6 +14444,21 @@
       <c r="H337">
         <v>1.303902451331371</v>
       </c>
+      <c r="K337">
+        <v>-0.00080536</v>
+      </c>
+      <c r="L337">
+        <v>0.00022588</v>
+      </c>
+      <c r="M337">
+        <v>-3.0353e-005</v>
+      </c>
+      <c r="N337">
+        <v>4.8437e-005</v>
+      </c>
+      <c r="Q337">
+        <v>0.001827317927067554</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -10974,6 +14489,15 @@
       <c r="F338">
         <v>0</v>
       </c>
+      <c r="K338">
+        <v>-0.0003030565788168227</v>
+      </c>
+      <c r="L338">
+        <v>5.259151149601211e-005</v>
+      </c>
+      <c r="Q338">
+        <v>1.224160367324969e-005</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -11010,6 +14534,21 @@
       <c r="H339">
         <v>1.96556885808982</v>
       </c>
+      <c r="K339">
+        <v>-0.0010809</v>
+      </c>
+      <c r="L339">
+        <v>0.0002515</v>
+      </c>
+      <c r="M339">
+        <v>-3.9491e-005</v>
+      </c>
+      <c r="N339">
+        <v>0.00013022</v>
+      </c>
+      <c r="Q339">
+        <v>0.0003186688272510794</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -11040,6 +14579,15 @@
       <c r="F340">
         <v>0</v>
       </c>
+      <c r="K340">
+        <v>-8.20152625152623e-005</v>
+      </c>
+      <c r="L340">
+        <v>5.149263784357458e-005</v>
+      </c>
+      <c r="Q340">
+        <v>0.1237812822108295</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -11070,6 +14618,15 @@
       <c r="F341">
         <v>0</v>
       </c>
+      <c r="K341">
+        <v>-0.005104715914982</v>
+      </c>
+      <c r="L341">
+        <v>0.002325228908115901</v>
+      </c>
+      <c r="Q341">
+        <v>0.05942224141077244</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -11099,6 +14656,15 @@
       </c>
       <c r="F342">
         <v>0</v>
+      </c>
+      <c r="K342">
+        <v>-0.0001351828433346491</v>
+      </c>
+      <c r="L342">
+        <v>0.0002506224210752143</v>
+      </c>
+      <c r="Q342">
+        <v>0.601421204797885</v>
       </c>
     </row>
   </sheetData>
